--- a/CTREE2017/ProgressReport/gradebook.xlsx
+++ b/CTREE2017/ProgressReport/gradebook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Writing" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Exams!$A$1:$BE$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Exams!$A$1:$BD$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Overview!$A$1:$K$17</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -32,7 +32,7 @@
     <author>Aaron Swoboda</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,10 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="138">
-  <si>
-    <t>Full Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>Quiz1Score</t>
   </si>
@@ -238,69 +235,6 @@
   </si>
   <si>
     <t>Grade</t>
-  </si>
-  <si>
-    <t>Bloodworth, Ethan A.</t>
-  </si>
-  <si>
-    <t>Bouza, Tony</t>
-  </si>
-  <si>
-    <t>Braiedy, Alex</t>
-  </si>
-  <si>
-    <t>Cohen, Noah M.</t>
-  </si>
-  <si>
-    <t>Dempsey, Emma</t>
-  </si>
-  <si>
-    <t>Freeman-Cook, Rachel E.</t>
-  </si>
-  <si>
-    <t>Griese, Kate</t>
-  </si>
-  <si>
-    <t>Hagar, Madeline J.</t>
-  </si>
-  <si>
-    <t>Hartzell, Abby</t>
-  </si>
-  <si>
-    <t>Na, Jay H.</t>
-  </si>
-  <si>
-    <t>Nguyen, Thu Q.</t>
-  </si>
-  <si>
-    <t>Nootenboom, Kate</t>
-  </si>
-  <si>
-    <t>Oettinger, Josh</t>
-  </si>
-  <si>
-    <t>Parsons, Katie Rose</t>
-  </si>
-  <si>
-    <t>Pope, Max</t>
-  </si>
-  <si>
-    <t>Raman, Narun K.</t>
-  </si>
-  <si>
-    <t>Rolland, Tyler J.</t>
-  </si>
-  <si>
-    <t>Vaca, Ray</t>
-  </si>
-  <si>
-    <t>Wallin, Preston R.</t>
-  </si>
-  <si>
-    <t>Wu, Ken</t>
-  </si>
-  <si>
-    <t>Zuniga, Orlando I.</t>
   </si>
   <si>
     <t>Q5a</t>
@@ -956,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -964,39 +898,39 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -1030,7 +964,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1064,7 +998,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1098,7 +1032,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1132,7 +1066,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1166,7 +1100,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -1200,7 +1134,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -1234,7 +1168,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1268,7 +1202,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1302,7 +1236,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -1336,7 +1270,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1370,7 +1304,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1404,7 +1338,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1438,7 +1372,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1472,7 +1406,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1506,7 +1440,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1540,7 +1474,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1574,7 +1508,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1608,7 +1542,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1642,7 +1576,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1676,7 +1610,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -1741,65 +1675,65 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
       <c r="K1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1">
-        <f>Writing!B2</f>
+        <f>Writing!A2</f>
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <f>HW!B2</f>
+        <f>HW!A2</f>
         <v>28.735736263736264</v>
       </c>
       <c r="D2" s="2">
-        <f>Exams!B2</f>
+        <f>Exams!A2</f>
         <v>4.1071428571428568</v>
       </c>
       <c r="E2" s="2">
-        <f>Exams!L2</f>
+        <f>Exams!K2</f>
         <v>8.82</v>
       </c>
       <c r="F2" s="2">
-        <f>Exams!X2</f>
+        <f>Exams!W2</f>
         <v>4.25</v>
       </c>
       <c r="G2" s="1">
-        <f>Exams!AI2</f>
+        <f>Exams!AH2</f>
         <v>0</v>
       </c>
       <c r="H2" s="2">
@@ -1816,30 +1750,30 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1">
-        <f>Writing!B3</f>
+        <f>Writing!A3</f>
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <f>HW!B3</f>
+        <f>HW!A3</f>
         <v>27.201434065934066</v>
       </c>
       <c r="D3" s="2">
-        <f>Exams!B3</f>
+        <f>Exams!A3</f>
         <v>4.2857142857142856</v>
       </c>
       <c r="E3" s="2">
-        <f>Exams!L3</f>
+        <f>Exams!K3</f>
         <v>14.580000000000002</v>
       </c>
       <c r="F3" s="2">
-        <f>Exams!X3</f>
+        <f>Exams!W3</f>
         <v>3.5</v>
       </c>
       <c r="G3" s="1">
-        <f>Exams!AI3</f>
+        <f>Exams!AH3</f>
         <v>0</v>
       </c>
       <c r="H3" s="2">
@@ -1856,30 +1790,30 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1">
-        <f>Writing!B4</f>
+        <f>Writing!A4</f>
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <f>HW!B4</f>
+        <f>HW!A4</f>
         <v>29.040192307692308</v>
       </c>
       <c r="D4" s="2">
-        <f>Exams!B4</f>
+        <f>Exams!A4</f>
         <v>4.8809523809523814</v>
       </c>
       <c r="E4" s="2">
-        <f>Exams!L4</f>
+        <f>Exams!K4</f>
         <v>16.560000000000002</v>
       </c>
       <c r="F4" s="2">
-        <f>Exams!X4</f>
+        <f>Exams!W4</f>
         <v>7.25</v>
       </c>
       <c r="G4" s="1">
-        <f>Exams!AI4</f>
+        <f>Exams!AH4</f>
         <v>0</v>
       </c>
       <c r="H4" s="2">
@@ -1896,30 +1830,30 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1">
-        <f>Writing!B5</f>
+        <f>Writing!A5</f>
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <f>HW!B5</f>
+        <f>HW!A5</f>
         <v>28.751417582417577</v>
       </c>
       <c r="D5" s="2">
-        <f>Exams!B5</f>
+        <f>Exams!A5</f>
         <v>4.4047619047619051</v>
       </c>
       <c r="E5" s="2">
-        <f>Exams!L5</f>
+        <f>Exams!K5</f>
         <v>9</v>
       </c>
       <c r="F5" s="2">
-        <f>Exams!X5</f>
+        <f>Exams!W5</f>
         <v>7.875</v>
       </c>
       <c r="G5" s="1">
-        <f>Exams!AI5</f>
+        <f>Exams!AH5</f>
         <v>0</v>
       </c>
       <c r="H5" s="2">
@@ -1936,30 +1870,30 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1">
-        <f>Writing!B6</f>
+        <f>Writing!A6</f>
         <v>8</v>
       </c>
       <c r="C6" s="2">
-        <f>HW!B6</f>
+        <f>HW!A6</f>
         <v>29.316912087912094</v>
       </c>
       <c r="D6" s="2">
-        <f>Exams!B6</f>
+        <f>Exams!A6</f>
         <v>4.4047619047619051</v>
       </c>
       <c r="E6" s="2">
-        <f>Exams!L6</f>
+        <f>Exams!K6</f>
         <v>13.5</v>
       </c>
       <c r="F6" s="2">
-        <f>Exams!X6</f>
+        <f>Exams!W6</f>
         <v>8.125</v>
       </c>
       <c r="G6" s="1">
-        <f>Exams!AI6</f>
+        <f>Exams!AH6</f>
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -1976,30 +1910,30 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1">
-        <f>Writing!B7</f>
+        <f>Writing!A7</f>
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <f>HW!B7</f>
+        <f>HW!A7</f>
         <v>29.459170329670329</v>
       </c>
       <c r="D7" s="2">
-        <f>Exams!B7</f>
+        <f>Exams!A7</f>
         <v>4.8214285714285712</v>
       </c>
       <c r="E7" s="2">
-        <f>Exams!L7</f>
+        <f>Exams!K7</f>
         <v>15.39</v>
       </c>
       <c r="F7" s="2">
-        <f>Exams!X7</f>
+        <f>Exams!W7</f>
         <v>6</v>
       </c>
       <c r="G7" s="1">
-        <f>Exams!AI7</f>
+        <f>Exams!AH7</f>
         <v>0</v>
       </c>
       <c r="H7" s="2">
@@ -2016,30 +1950,30 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1">
-        <f>Writing!B8</f>
+        <f>Writing!A8</f>
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <f>HW!B8</f>
+        <f>HW!A8</f>
         <v>28.94140659340659</v>
       </c>
       <c r="D8" s="2">
-        <f>Exams!B8</f>
+        <f>Exams!A8</f>
         <v>3.4523809523809526</v>
       </c>
       <c r="E8" s="2">
-        <f>Exams!L8</f>
+        <f>Exams!K8</f>
         <v>12.24</v>
       </c>
       <c r="F8" s="2">
-        <f>Exams!X8</f>
+        <f>Exams!W8</f>
         <v>5.75</v>
       </c>
       <c r="G8" s="1">
-        <f>Exams!AI8</f>
+        <f>Exams!AH8</f>
         <v>0</v>
       </c>
       <c r="H8" s="2">
@@ -2056,30 +1990,30 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1">
-        <f>Writing!B9</f>
+        <f>Writing!A9</f>
         <v>8</v>
       </c>
       <c r="C9" s="2">
-        <f>HW!B9</f>
+        <f>HW!A9</f>
         <v>29.327054945054947</v>
       </c>
       <c r="D9" s="2">
-        <f>Exams!B9</f>
+        <f>Exams!A9</f>
         <v>3.9880952380952381</v>
       </c>
       <c r="E9" s="2">
-        <f>Exams!L9</f>
+        <f>Exams!K9</f>
         <v>10.26</v>
       </c>
       <c r="F9" s="2">
-        <f>Exams!X9</f>
+        <f>Exams!W9</f>
         <v>3.875</v>
       </c>
       <c r="G9" s="1">
-        <f>Exams!AI9</f>
+        <f>Exams!AH9</f>
         <v>0</v>
       </c>
       <c r="H9" s="2">
@@ -2096,30 +2030,30 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1">
-        <f>Writing!B10</f>
+        <f>Writing!A10</f>
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <f>HW!B10</f>
+        <f>HW!A10</f>
         <v>29.069681318681315</v>
       </c>
       <c r="D10" s="2">
-        <f>Exams!B10</f>
+        <f>Exams!A10</f>
         <v>3.5714285714285716</v>
       </c>
       <c r="E10" s="2">
-        <f>Exams!L10</f>
+        <f>Exams!K10</f>
         <v>13.5</v>
       </c>
       <c r="F10" s="2">
-        <f>Exams!X10</f>
+        <f>Exams!W10</f>
         <v>5.5</v>
       </c>
       <c r="G10" s="1">
-        <f>Exams!AI10</f>
+        <f>Exams!AH10</f>
         <v>0</v>
       </c>
       <c r="H10" s="2">
@@ -2136,30 +2070,30 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1">
-        <f>Writing!B11</f>
+        <f>Writing!A11</f>
         <v>7</v>
       </c>
       <c r="C11" s="2">
-        <f>HW!B11</f>
+        <f>HW!A11</f>
         <v>27.892554945054947</v>
       </c>
       <c r="D11" s="2">
-        <f>Exams!B11</f>
+        <f>Exams!A11</f>
         <v>2.9761904761904763</v>
       </c>
       <c r="E11" s="2">
-        <f>Exams!L11</f>
+        <f>Exams!K11</f>
         <v>10.98</v>
       </c>
       <c r="F11" s="2">
-        <f>Exams!X11</f>
+        <f>Exams!W11</f>
         <v>5.75</v>
       </c>
       <c r="G11" s="1">
-        <f>Exams!AI11</f>
+        <f>Exams!AH11</f>
         <v>0</v>
       </c>
       <c r="H11" s="2">
@@ -2176,30 +2110,30 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1">
-        <f>Writing!B12</f>
+        <f>Writing!A12</f>
         <v>8</v>
       </c>
       <c r="C12" s="2">
-        <f>HW!B12</f>
+        <f>HW!A12</f>
         <v>26.300664835164838</v>
       </c>
       <c r="D12" s="2">
-        <f>Exams!B12</f>
+        <f>Exams!A12</f>
         <v>4.5238095238095237</v>
       </c>
       <c r="E12" s="2">
-        <f>Exams!L12</f>
+        <f>Exams!K12</f>
         <v>12.24</v>
       </c>
       <c r="F12" s="2">
-        <f>Exams!X12</f>
+        <f>Exams!W12</f>
         <v>5</v>
       </c>
       <c r="G12" s="1">
-        <f>Exams!AI12</f>
+        <f>Exams!AH12</f>
         <v>0</v>
       </c>
       <c r="H12" s="2">
@@ -2216,30 +2150,30 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1">
-        <f>Writing!B13</f>
+        <f>Writing!A13</f>
         <v>8</v>
       </c>
       <c r="C13" s="2">
-        <f>HW!B13</f>
+        <f>HW!A13</f>
         <v>28.016582417582423</v>
       </c>
       <c r="D13" s="2">
-        <f>Exams!B13</f>
+        <f>Exams!A13</f>
         <v>3.9285714285714284</v>
       </c>
       <c r="E13" s="2">
-        <f>Exams!L13</f>
+        <f>Exams!K13</f>
         <v>14.4</v>
       </c>
       <c r="F13" s="2">
-        <f>Exams!X13</f>
+        <f>Exams!W13</f>
         <v>6.125</v>
       </c>
       <c r="G13" s="1">
-        <f>Exams!AI13</f>
+        <f>Exams!AH13</f>
         <v>0</v>
       </c>
       <c r="H13" s="2">
@@ -2256,30 +2190,30 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1">
-        <f>Writing!B14</f>
+        <f>Writing!A14</f>
         <v>8</v>
       </c>
       <c r="C14" s="2">
-        <f>HW!B14</f>
+        <f>HW!A14</f>
         <v>29.014170329670332</v>
       </c>
       <c r="D14" s="2">
-        <f>Exams!B14</f>
+        <f>Exams!A14</f>
         <v>5</v>
       </c>
       <c r="E14" s="2">
-        <f>Exams!L14</f>
+        <f>Exams!K14</f>
         <v>15.12</v>
       </c>
       <c r="F14" s="2">
-        <f>Exams!X14</f>
+        <f>Exams!W14</f>
         <v>5</v>
       </c>
       <c r="G14" s="1">
-        <f>Exams!AI14</f>
+        <f>Exams!AH14</f>
         <v>0</v>
       </c>
       <c r="H14" s="2">
@@ -2296,30 +2230,30 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1">
-        <f>Writing!B15</f>
+        <f>Writing!A15</f>
         <v>8</v>
       </c>
       <c r="C15" s="2">
-        <f>HW!B15</f>
+        <f>HW!A15</f>
         <v>28.343664835164837</v>
       </c>
       <c r="D15" s="2">
-        <f>Exams!B15</f>
+        <f>Exams!A15</f>
         <v>3.8690476190476191</v>
       </c>
       <c r="E15" s="2">
-        <f>Exams!L15</f>
+        <f>Exams!K15</f>
         <v>14.94</v>
       </c>
       <c r="F15" s="2">
-        <f>Exams!X15</f>
+        <f>Exams!W15</f>
         <v>6.5</v>
       </c>
       <c r="G15" s="1">
-        <f>Exams!AI15</f>
+        <f>Exams!AH15</f>
         <v>0</v>
       </c>
       <c r="H15" s="2">
@@ -2336,30 +2270,30 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B16" s="1">
-        <f>Writing!B16</f>
+        <f>Writing!A16</f>
         <v>6</v>
       </c>
       <c r="C16" s="2">
-        <f>HW!B16</f>
+        <f>HW!A16</f>
         <v>25.739747252747257</v>
       </c>
       <c r="D16" s="2">
-        <f>Exams!B16</f>
+        <f>Exams!A16</f>
         <v>3.6904761904761907</v>
       </c>
       <c r="E16" s="2">
-        <f>Exams!L16</f>
+        <f>Exams!K16</f>
         <v>10.080000000000002</v>
       </c>
       <c r="F16" s="2">
-        <f>Exams!X16</f>
+        <f>Exams!W16</f>
         <v>6.25</v>
       </c>
       <c r="G16" s="1">
-        <f>Exams!AI16</f>
+        <f>Exams!AH16</f>
         <v>0</v>
       </c>
       <c r="H16" s="2">
@@ -2376,30 +2310,30 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1">
-        <f>Writing!B17</f>
+        <f>Writing!A17</f>
         <v>6</v>
       </c>
       <c r="C17" s="2">
-        <f>HW!B17</f>
+        <f>HW!A17</f>
         <v>29.055021978021976</v>
       </c>
       <c r="D17" s="2">
-        <f>Exams!B17</f>
+        <f>Exams!A17</f>
         <v>4.2857142857142856</v>
       </c>
       <c r="E17" s="2">
-        <f>Exams!L17</f>
+        <f>Exams!K17</f>
         <v>11.16</v>
       </c>
       <c r="F17" s="2">
-        <f>Exams!X17</f>
+        <f>Exams!W17</f>
         <v>6</v>
       </c>
       <c r="G17" s="1">
-        <f>Exams!AI17</f>
+        <f>Exams!AH17</f>
         <v>0</v>
       </c>
       <c r="H17" s="2">
@@ -2416,30 +2350,30 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1">
-        <f>Writing!B18</f>
+        <f>Writing!A18</f>
         <v>8</v>
       </c>
       <c r="C18" s="2">
-        <f>HW!B18</f>
+        <f>HW!A18</f>
         <v>29.325175824175822</v>
       </c>
       <c r="D18" s="2">
-        <f>Exams!B18</f>
+        <f>Exams!A18</f>
         <v>4.166666666666667</v>
       </c>
       <c r="E18" s="2">
-        <f>Exams!L18</f>
+        <f>Exams!K18</f>
         <v>11.700000000000001</v>
       </c>
       <c r="F18" s="2">
-        <f>Exams!X18</f>
+        <f>Exams!W18</f>
         <v>7.25</v>
       </c>
       <c r="G18" s="1">
-        <f>Exams!AI18</f>
+        <f>Exams!AH18</f>
         <v>0</v>
       </c>
       <c r="H18" s="2">
@@ -2456,30 +2390,30 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B19" s="1">
-        <f>Writing!B19</f>
+        <f>Writing!A19</f>
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <f>HW!B19</f>
+        <f>HW!A19</f>
         <v>25.456428571428567</v>
       </c>
       <c r="D19" s="2">
-        <f>Exams!B19</f>
+        <f>Exams!A19</f>
         <v>1.3095238095238095</v>
       </c>
       <c r="E19" s="2">
-        <f>Exams!L19</f>
+        <f>Exams!K19</f>
         <v>5.76</v>
       </c>
       <c r="F19" s="2">
-        <f>Exams!X19</f>
+        <f>Exams!W19</f>
         <v>2.25</v>
       </c>
       <c r="G19" s="1">
-        <f>Exams!AI19</f>
+        <f>Exams!AH19</f>
         <v>0</v>
       </c>
       <c r="H19" s="2">
@@ -2496,30 +2430,30 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1">
-        <f>Writing!B20</f>
+        <f>Writing!A20</f>
         <v>8</v>
       </c>
       <c r="C20" s="2">
-        <f>HW!B20</f>
+        <f>HW!A20</f>
         <v>29.730752747252751</v>
       </c>
       <c r="D20" s="2">
-        <f>Exams!B20</f>
+        <f>Exams!A20</f>
         <v>2.9761904761904763</v>
       </c>
       <c r="E20" s="2">
-        <f>Exams!L20</f>
+        <f>Exams!K20</f>
         <v>8.1</v>
       </c>
       <c r="F20" s="2">
-        <f>Exams!X20</f>
+        <f>Exams!W20</f>
         <v>8.25</v>
       </c>
       <c r="G20" s="1">
-        <f>Exams!AI20</f>
+        <f>Exams!AH20</f>
         <v>0</v>
       </c>
       <c r="H20" s="2">
@@ -2536,30 +2470,30 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1">
-        <f>Writing!B21</f>
+        <f>Writing!A21</f>
         <v>8</v>
       </c>
       <c r="C21" s="2">
-        <f>HW!B21</f>
+        <f>HW!A21</f>
         <v>28.931384615384619</v>
       </c>
       <c r="D21" s="2">
-        <f>Exams!B21</f>
+        <f>Exams!A21</f>
         <v>4.0476190476190474</v>
       </c>
       <c r="E21" s="2">
-        <f>Exams!L21</f>
+        <f>Exams!K21</f>
         <v>8.2800000000000011</v>
       </c>
       <c r="F21" s="2">
-        <f>Exams!X21</f>
+        <f>Exams!W21</f>
         <v>6.625</v>
       </c>
       <c r="G21" s="1">
-        <f>Exams!AI21</f>
+        <f>Exams!AH21</f>
         <v>0</v>
       </c>
       <c r="H21" s="2">
@@ -2576,30 +2510,30 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B22" s="1">
-        <f>Writing!B22</f>
+        <f>Writing!A22</f>
         <v>7</v>
       </c>
       <c r="C22" s="2">
-        <f>HW!B22</f>
+        <f>HW!A22</f>
         <v>27.09575824175824</v>
       </c>
       <c r="D22" s="2">
-        <f>Exams!B22</f>
+        <f>Exams!A22</f>
         <v>3.5714285714285716</v>
       </c>
       <c r="E22" s="2">
-        <f>Exams!L22</f>
+        <f>Exams!K22</f>
         <v>11.88</v>
       </c>
       <c r="F22" s="2">
-        <f>Exams!X22</f>
+        <f>Exams!W22</f>
         <v>5.25</v>
       </c>
       <c r="G22" s="1">
-        <f>Exams!AI22</f>
+        <f>Exams!AH22</f>
         <v>0</v>
       </c>
       <c r="H22" s="2">
@@ -2649,28 +2583,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE22"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL4" sqref="AL4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="11" width="5.33203125" customWidth="1"/>
-    <col min="14" max="23" width="6.6640625" customWidth="1"/>
-    <col min="24" max="24" width="10" customWidth="1"/>
-    <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="34" width="6" customWidth="1"/>
-    <col min="35" max="35" width="4" customWidth="1"/>
-    <col min="36" max="36" width="6.5" customWidth="1"/>
-    <col min="37" max="57" width="5.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="10" width="5.33203125" customWidth="1"/>
+    <col min="13" max="22" width="6.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="8" customWidth="1"/>
+    <col min="25" max="33" width="6" customWidth="1"/>
+    <col min="34" max="34" width="4" customWidth="1"/>
+    <col min="35" max="35" width="6.5" customWidth="1"/>
+    <col min="36" max="56" width="5.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57">
+    <row r="1" spans="1:56">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2681,10 +2614,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -2693,16 +2626,16 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
         <v>25</v>
@@ -2714,85 +2647,85 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="P1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
-        <v>41</v>
-      </c>
       <c r="T1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="W1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="X1" t="s">
         <v>32</v>
       </c>
       <c r="Y1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="Z1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AA1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="AB1" t="s">
         <v>4</v>
       </c>
       <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
         <v>5</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
       </c>
       <c r="AE1" t="s">
         <v>6</v>
       </c>
       <c r="AF1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG1" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" t="s">
-        <v>10</v>
+      <c r="AH1" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="AI1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="AL1" s="9" t="s">
         <v>40</v>
       </c>
       <c r="AM1" s="9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN1" s="9" t="s">
         <v>30</v>
       </c>
       <c r="AO1" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AP1" s="9" t="s">
         <v>42</v>
@@ -2839,140 +2772,134 @@
       <c r="BD1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BE1" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57">
-      <c r="A2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2">
-        <f t="shared" ref="B2:B22" si="0">5*C2/21</f>
+    </row>
+    <row r="2" spans="1:56">
+      <c r="A2" s="2">
+        <f t="shared" ref="A2:A22" si="0">5*B2/21</f>
         <v>4.1071428571428568</v>
       </c>
-      <c r="C2" s="6">
-        <f t="shared" ref="C2:C22" si="1">SUM(D2:K2)</f>
+      <c r="B2" s="6">
+        <f t="shared" ref="B2:B22" si="1">SUM(C2:J2)</f>
         <v>17.25</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
+        <v>1.75</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1.75</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J2">
-        <v>1.5</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <f>L2/50*18</f>
+        <v>8.82</v>
       </c>
       <c r="L2" s="2">
-        <f>M2/50*18</f>
-        <v>8.82</v>
-      </c>
-      <c r="M2" s="2">
-        <f>SUM(N2:W2)</f>
+        <f>SUM(M2:V2)</f>
         <v>24.5</v>
       </c>
+      <c r="M2">
+        <v>0.5</v>
+      </c>
       <c r="N2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
         <v>2.5</v>
       </c>
       <c r="V2">
-        <v>2.5</v>
-      </c>
-      <c r="W2">
         <v>4</v>
       </c>
-      <c r="X2" s="2">
-        <f>Y2/20*10</f>
+      <c r="W2" s="2">
+        <f>X2/20*10</f>
         <v>4.25</v>
       </c>
-      <c r="Y2" s="1">
-        <f>SUM(Z2:AH2)</f>
+      <c r="X2" s="1">
+        <f>SUM(Y2:AG2)</f>
         <v>8.5</v>
       </c>
+      <c r="Y2">
+        <v>0.5</v>
+      </c>
       <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>1.5</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
         <v>0.5</v>
       </c>
-      <c r="AA2">
-        <v>2</v>
-      </c>
-      <c r="AB2">
-        <v>1.5</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>2</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
       <c r="AH2">
-        <v>0.5</v>
+        <f>AI2/75*25</f>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <f>AJ2/75*25</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>SUM(AK2:BE2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2">
+        <f>SUM(AJ2:BD2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56">
+      <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>4.2857142857142856</v>
       </c>
-      <c r="C3" s="6">
+      <c r="B3" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
@@ -2983,146 +2910,143 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K22" si="2">L3/50*18</f>
+        <v>14.580000000000002</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L22" si="2">M3/50*18</f>
-        <v>14.580000000000002</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M22" si="3">SUM(N3:W3)</f>
+        <f t="shared" ref="L3:L22" si="3">SUM(M3:V3)</f>
         <v>40.5</v>
       </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="P3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S3">
         <v>6</v>
       </c>
       <c r="T3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3">
+        <v>4</v>
+      </c>
+      <c r="V3">
         <v>5</v>
       </c>
-      <c r="V3">
-        <v>4</v>
-      </c>
-      <c r="W3">
-        <v>5</v>
-      </c>
-      <c r="X3" s="2">
-        <f t="shared" ref="X3:X17" si="4">Y3/20*10</f>
+      <c r="W3" s="2">
+        <f t="shared" ref="W3:W17" si="4">X3/20*10</f>
         <v>3.5</v>
       </c>
-      <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y17" si="5">SUM(Z3:AH3)</f>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X17" si="5">SUM(Y3:AG3)</f>
         <v>7</v>
       </c>
+      <c r="Y3">
+        <v>0.5</v>
+      </c>
       <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
         <v>0.5</v>
       </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
       <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>0.5</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AE3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AH3">
+        <f t="shared" ref="AH3:AH4" si="6">AI3/75*25</f>
         <v>0</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI4" si="6">AJ3/75*25</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ4" si="7">SUM(AK3:BE3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="2">
+        <f t="shared" ref="AI3:AI4" si="7">SUM(AJ3:BD3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56">
+      <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>4.8809523809523814</v>
       </c>
-      <c r="C4" s="6">
+      <c r="B4" s="6">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
         <v>2.5</v>
       </c>
-      <c r="L4" s="2">
+      <c r="K4" s="2">
         <f t="shared" si="2"/>
         <v>16.560000000000002</v>
       </c>
-      <c r="M4" s="2">
+      <c r="L4" s="2">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
       <c r="N4">
         <v>3</v>
       </c>
@@ -3130,48 +3054,48 @@
         <v>3</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="R4">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="S4">
         <v>6</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="U4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>4</v>
-      </c>
-      <c r="W4">
         <v>5</v>
       </c>
-      <c r="X4" s="2">
+      <c r="W4" s="2">
         <f t="shared" si="4"/>
         <v>7.25</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="X4" s="1">
         <f t="shared" si="5"/>
         <v>14.5</v>
       </c>
+      <c r="Y4">
+        <v>1.5</v>
+      </c>
       <c r="Z4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <v>2</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4">
         <v>2</v>
@@ -3180,105 +3104,102 @@
         <v>2</v>
       </c>
       <c r="AF4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>1</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:56">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4.4047619047619051</v>
       </c>
-      <c r="C5" s="6">
+      <c r="B5" s="6">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="M5" s="2">
+      <c r="L5" s="2">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
       <c r="N5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>5</v>
       </c>
       <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>5</v>
       </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>5</v>
-      </c>
-      <c r="X5" s="2">
+      <c r="W5" s="2">
         <f t="shared" si="4"/>
         <v>7.875</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="X5" s="1">
         <f t="shared" si="5"/>
         <v>15.75</v>
       </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
       <c r="Z5">
         <v>2</v>
       </c>
@@ -3286,117 +3207,114 @@
         <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD5">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AE5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AF5">
         <v>2</v>
       </c>
       <c r="AG5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <f t="shared" ref="AH5:AH22" si="8">AI5/75*25</f>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <f t="shared" ref="AI5:AI22" si="8">AJ5/75*25</f>
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" ref="AJ5:AJ22" si="9">SUM(AK5:BE5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57">
-      <c r="A6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="2">
+        <f t="shared" ref="AI5:AI22" si="9">SUM(AJ5:BD5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4.4047619047619051</v>
       </c>
-      <c r="C6" s="6">
+      <c r="B6" s="6">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="K6" s="2">
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
-      <c r="M6" s="2">
+      <c r="L6" s="2">
         <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
       <c r="N6">
+        <v>2.5</v>
+      </c>
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="O6">
-        <v>2.5</v>
-      </c>
       <c r="P6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>4</v>
       </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="S6">
-        <v>5</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>4</v>
-      </c>
-      <c r="X6" s="2">
+      <c r="W6" s="2">
         <f t="shared" si="4"/>
         <v>8.125</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="X6" s="1">
         <f t="shared" si="5"/>
         <v>16.25</v>
       </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
       <c r="Z6">
         <v>2</v>
       </c>
@@ -3404,128 +3322,125 @@
         <v>2</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD6">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AE6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AF6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AG6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:57">
-      <c r="A7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:56">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>4.8214285714285712</v>
       </c>
-      <c r="C7" s="6">
+      <c r="B7" s="6">
         <f t="shared" si="1"/>
         <v>20.25</v>
       </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
+        <v>1.75</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2.5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1.75</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2.5</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="K7" s="2">
         <f t="shared" si="2"/>
         <v>15.39</v>
       </c>
-      <c r="M7" s="2">
+      <c r="L7" s="2">
         <f t="shared" si="3"/>
         <v>42.75</v>
       </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
       <c r="N7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
+        <v>8.5</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>5.5</v>
+      </c>
+      <c r="T7">
+        <v>4.75</v>
+      </c>
+      <c r="U7">
         <v>3.5</v>
       </c>
-      <c r="R7">
-        <v>8.5</v>
-      </c>
-      <c r="S7">
-        <v>6</v>
-      </c>
-      <c r="T7">
-        <v>5.5</v>
-      </c>
-      <c r="U7">
-        <v>4.75</v>
-      </c>
       <c r="V7">
-        <v>3.5</v>
-      </c>
-      <c r="W7">
         <v>4.5</v>
       </c>
-      <c r="X7" s="2">
+      <c r="W7" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="X7" s="1">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
+      <c r="Y7">
+        <v>1.5</v>
+      </c>
       <c r="Z7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD7">
         <v>2</v>
@@ -3534,341 +3449,332 @@
         <v>2</v>
       </c>
       <c r="AF7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH7">
-        <v>0.5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
-      <c r="A8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:56">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>3.4523809523809526</v>
       </c>
-      <c r="C8" s="6">
+      <c r="B8" s="6">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
       <c r="D8">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <v>1.5</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>1.5</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1.5</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
         <v>12.24</v>
       </c>
-      <c r="M8" s="2">
+      <c r="L8" s="2">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
       <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
         <v>2.5</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <v>6</v>
-      </c>
-      <c r="S8">
-        <v>3</v>
-      </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8">
-        <v>4</v>
-      </c>
       <c r="V8">
-        <v>2.5</v>
-      </c>
-      <c r="W8">
         <v>5</v>
       </c>
-      <c r="X8" s="2">
+      <c r="W8" s="2">
         <f t="shared" si="4"/>
         <v>5.75</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="X8" s="1">
         <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
       <c r="Z8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AB8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8">
         <v>2</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:57">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:56">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>3.9880952380952381</v>
       </c>
-      <c r="C9" s="6">
+      <c r="B9" s="6">
         <f t="shared" si="1"/>
         <v>16.75</v>
       </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="F9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
         <v>2.5</v>
       </c>
-      <c r="L9" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>10.26</v>
       </c>
-      <c r="M9" s="2">
+      <c r="L9" s="2">
         <f t="shared" si="3"/>
         <v>28.5</v>
       </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
       <c r="N9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
         <v>3</v>
       </c>
-      <c r="S9">
-        <v>4</v>
-      </c>
-      <c r="T9">
-        <v>6</v>
-      </c>
       <c r="U9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
         <v>5</v>
       </c>
-      <c r="X9" s="2">
+      <c r="W9" s="2">
         <f t="shared" si="4"/>
         <v>3.875</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="X9" s="1">
         <f t="shared" si="5"/>
         <v>7.75</v>
       </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1.5</v>
+      </c>
+      <c r="AD9">
+        <v>1.75</v>
+      </c>
+      <c r="AE9">
+        <v>1.5</v>
+      </c>
+      <c r="AF9">
         <v>0.5</v>
       </c>
-      <c r="AB9">
-        <v>2</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>1.5</v>
-      </c>
-      <c r="AE9">
-        <v>1.75</v>
-      </c>
-      <c r="AF9">
-        <v>1.5</v>
-      </c>
       <c r="AG9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH9">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
-      <c r="A10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:56">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>3.5714285714285716</v>
       </c>
-      <c r="C10" s="6">
+      <c r="B10" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F10">
+        <v>1.5</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>0.5</v>
       </c>
-      <c r="G10">
-        <v>1.5</v>
-      </c>
-      <c r="H10">
-        <v>2.5</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
       <c r="J10">
-        <v>0.5</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
-      <c r="M10" s="2">
+      <c r="L10" s="2">
         <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
       <c r="N10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S10">
         <v>6</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>4</v>
-      </c>
-      <c r="W10">
         <v>3.5</v>
       </c>
-      <c r="X10" s="2">
+      <c r="W10" s="2">
         <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="X10" s="1">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
       <c r="Z10">
         <v>2</v>
       </c>
@@ -3876,288 +3782,279 @@
         <v>2</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
-      <c r="A11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:56">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>2.9761904761904763</v>
       </c>
-      <c r="C11" s="6">
+      <c r="B11" s="6">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
         <v>0.5</v>
       </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="K11" s="2">
         <f t="shared" si="2"/>
         <v>10.98</v>
       </c>
-      <c r="M11" s="2">
+      <c r="L11" s="2">
         <f t="shared" si="3"/>
         <v>30.5</v>
       </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
       <c r="N11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
         <v>3.5</v>
       </c>
-      <c r="X11" s="2">
+      <c r="W11" s="2">
         <f t="shared" si="4"/>
         <v>5.75</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="X11" s="1">
         <f t="shared" si="5"/>
         <v>11.5</v>
       </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
       <c r="Z11">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AA11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:57">
-      <c r="A12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:56">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>4.5238095238095237</v>
       </c>
-      <c r="C12" s="6">
+      <c r="B12" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>3</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
         <v>12.24</v>
       </c>
-      <c r="M12" s="2">
+      <c r="L12" s="2">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
       <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
         <v>3</v>
       </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
       <c r="R12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S12">
         <v>6</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="U12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V12">
-        <v>4</v>
-      </c>
-      <c r="W12">
         <v>4.5</v>
       </c>
-      <c r="X12" s="2">
+      <c r="W12" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="X12" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
+      <c r="Y12">
+        <v>1.5</v>
+      </c>
       <c r="Z12">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AA12">
         <v>2</v>
       </c>
       <c r="AB12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
-      <c r="A13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:56">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>3.9285714285714284</v>
       </c>
-      <c r="C13" s="6">
+      <c r="B13" s="6">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -4172,189 +4069,186 @@
         <v>2</v>
       </c>
       <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
         <v>2.5</v>
       </c>
-      <c r="L13" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
         <v>14.4</v>
       </c>
-      <c r="M13" s="2">
+      <c r="L13" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
       <c r="N13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="P13">
         <v>3</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S13">
         <v>6</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>3</v>
-      </c>
-      <c r="W13">
         <v>4.5</v>
       </c>
-      <c r="X13" s="2">
+      <c r="W13" s="2">
         <f t="shared" si="4"/>
         <v>6.125</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="X13" s="1">
         <f t="shared" si="5"/>
         <v>12.25</v>
       </c>
+      <c r="Y13">
+        <v>1.75</v>
+      </c>
       <c r="Z13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AA13">
         <v>2</v>
       </c>
       <c r="AB13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD13">
         <v>2</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AH13">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ13">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:57">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:56">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="6">
+      <c r="B14" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="2"/>
         <v>15.12</v>
       </c>
-      <c r="M14" s="2">
+      <c r="L14" s="2">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
       <c r="N14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14">
         <v>3</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S14">
         <v>6</v>
       </c>
       <c r="T14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U14">
         <v>4</v>
       </c>
       <c r="V14">
-        <v>4</v>
-      </c>
-      <c r="W14">
         <v>3</v>
       </c>
-      <c r="X14" s="2">
+      <c r="W14" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="X14" s="1">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
       <c r="Z14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA14">
         <v>2</v>
       </c>
       <c r="AB14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <v>1</v>
@@ -4363,423 +4257,411 @@
         <v>1</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:57">
-      <c r="A15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:56">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>3.8690476190476191</v>
       </c>
-      <c r="C15" s="6">
+      <c r="B15" s="6">
         <f t="shared" si="1"/>
         <v>16.25</v>
       </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
       <c r="D15">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2.75</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
         <v>1.5</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>2.75</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>0.5</v>
-      </c>
-      <c r="K15">
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="K15" s="2">
         <f t="shared" si="2"/>
         <v>14.94</v>
       </c>
-      <c r="M15" s="2">
+      <c r="L15" s="2">
         <f t="shared" si="3"/>
         <v>41.5</v>
       </c>
+      <c r="M15">
+        <v>1.5</v>
+      </c>
       <c r="N15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S15">
         <v>6</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U15">
         <v>4</v>
       </c>
       <c r="V15">
-        <v>4</v>
-      </c>
-      <c r="W15">
         <v>5</v>
       </c>
-      <c r="X15" s="2">
+      <c r="W15" s="2">
         <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="X15" s="1">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <v>2</v>
+      </c>
+      <c r="AG15">
         <v>0.5</v>
       </c>
-      <c r="AB15">
-        <v>2</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <v>3</v>
-      </c>
-      <c r="AE15">
-        <v>2</v>
-      </c>
-      <c r="AF15">
-        <v>2</v>
-      </c>
-      <c r="AG15">
-        <v>2</v>
-      </c>
       <c r="AH15">
-        <v>0.5</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ15">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:57">
-      <c r="A16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:56">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>3.6904761904761907</v>
       </c>
-      <c r="C16" s="6">
+      <c r="B16" s="6">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
         <v>10.080000000000002</v>
       </c>
-      <c r="M16" s="2">
+      <c r="L16" s="2">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
+      <c r="M16">
+        <v>1.5</v>
+      </c>
       <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>3.5</v>
+      </c>
+      <c r="U16">
         <v>1.5</v>
       </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
-      <c r="T16">
-        <v>6</v>
-      </c>
-      <c r="U16">
+      <c r="V16">
         <v>3.5</v>
       </c>
-      <c r="V16">
-        <v>1.5</v>
-      </c>
-      <c r="W16">
-        <v>3.5</v>
-      </c>
-      <c r="X16" s="2">
+      <c r="W16" s="2">
         <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="X16" s="1">
         <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
+      <c r="Y16">
+        <v>0.5</v>
+      </c>
       <c r="Z16">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AA16">
         <v>2</v>
       </c>
       <c r="AB16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16">
         <v>2</v>
       </c>
       <c r="AG16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
-      <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:35">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>4.2857142857142856</v>
       </c>
-      <c r="C17" s="6">
+      <c r="B17" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H17">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>11.16</v>
       </c>
-      <c r="M17" s="2">
+      <c r="L17" s="2">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O17">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="P17">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q17">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="S17">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>2</v>
-      </c>
-      <c r="W17">
         <v>5</v>
       </c>
-      <c r="X17" s="2">
+      <c r="W17" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="X17" s="1">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
       <c r="Z17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AB17">
         <v>0.5</v>
       </c>
       <c r="AC17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD17">
         <v>1</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17">
         <v>2</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH17">
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
-      <c r="A18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:35">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="C18" s="6">
+      <c r="B18" s="6">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
-      </c>
-      <c r="K18">
         <v>2.5</v>
       </c>
-      <c r="L18" s="2">
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>11.700000000000001</v>
       </c>
-      <c r="M18" s="2">
+      <c r="L18" s="2">
         <f t="shared" si="3"/>
         <v>32.5</v>
       </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
       <c r="N18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>3</v>
@@ -4788,45 +4670,45 @@
         <v>3</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S18">
         <v>6</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
         <v>5</v>
       </c>
-      <c r="X18" s="2">
-        <f t="shared" ref="X18:X22" si="10">Y18/20*10</f>
+      <c r="W18" s="2">
+        <f t="shared" ref="W18:W22" si="10">X18/20*10</f>
         <v>7.25</v>
       </c>
-      <c r="Y18" s="1">
-        <f t="shared" ref="Y18:Y22" si="11">SUM(Z18:AH18)</f>
+      <c r="X18" s="1">
+        <f t="shared" ref="X18:X22" si="11">SUM(Y18:AG18)</f>
         <v>14.5</v>
       </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
       <c r="Z18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA18">
         <v>2</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AC18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18">
         <v>2</v>
@@ -4838,217 +4720,211 @@
         <v>2</v>
       </c>
       <c r="AH18">
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ18">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
-      <c r="A19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:35">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>1.3095238095238095</v>
       </c>
-      <c r="C19" s="6">
+      <c r="B19" s="6">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
       </c>
       <c r="J19">
         <v>0.5</v>
       </c>
-      <c r="K19">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="2">
+      <c r="K19" s="2">
         <f t="shared" si="2"/>
         <v>5.76</v>
       </c>
-      <c r="M19" s="2">
+      <c r="L19" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
+      <c r="M19">
+        <v>0.5</v>
+      </c>
       <c r="N19">
         <v>0.5</v>
       </c>
       <c r="O19">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
         <v>1.5</v>
       </c>
-      <c r="R19">
-        <v>2</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
       <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
         <v>1.5</v>
       </c>
-      <c r="U19">
-        <v>2.5</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1.5</v>
-      </c>
-      <c r="X19" s="2">
+      <c r="W19" s="2">
         <f t="shared" si="10"/>
         <v>2.25</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="X19" s="1">
         <f t="shared" si="11"/>
         <v>4.5</v>
       </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
       <c r="Z19">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AA19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
-      <c r="A20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:35">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>2.9761904761904763</v>
       </c>
-      <c r="C20" s="6">
+      <c r="B20" s="6">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
       <c r="D20">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E20">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
+      <c r="K20" s="2">
         <f t="shared" si="2"/>
         <v>8.1</v>
       </c>
-      <c r="M20" s="2">
+      <c r="L20" s="2">
         <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
       <c r="N20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
         <v>3</v>
       </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
       <c r="R20">
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
         <v>3</v>
       </c>
-      <c r="S20">
-        <v>4</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
       <c r="U20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
         <v>3.5</v>
       </c>
-      <c r="X20" s="2">
+      <c r="W20" s="2">
         <f t="shared" si="10"/>
         <v>8.25</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="X20" s="1">
         <f t="shared" si="11"/>
         <v>16.5</v>
       </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
       <c r="Z20">
         <v>2</v>
       </c>
@@ -5056,208 +4932,202 @@
         <v>2</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AD20">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AE20">
         <v>2</v>
       </c>
       <c r="AF20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
-      <c r="A21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" spans="1:35">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>4.0476190476190474</v>
       </c>
-      <c r="C21" s="6">
+      <c r="B21" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="K21" s="2">
         <f t="shared" si="2"/>
         <v>8.2800000000000011</v>
       </c>
-      <c r="M21" s="2">
+      <c r="L21" s="2">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
+      <c r="M21">
+        <v>0.5</v>
+      </c>
       <c r="N21">
+        <v>1.5</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
         <v>0.5</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>4.5</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
         <v>1.5</v>
       </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <v>0.5</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>4.5</v>
-      </c>
-      <c r="T21">
-        <v>3</v>
-      </c>
-      <c r="U21">
-        <v>2.5</v>
-      </c>
       <c r="V21">
-        <v>1.5</v>
-      </c>
-      <c r="W21">
         <v>5</v>
       </c>
-      <c r="X21" s="2">
+      <c r="W21" s="2">
         <f t="shared" si="10"/>
         <v>6.625</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="X21" s="1">
         <f t="shared" si="11"/>
         <v>13.25</v>
       </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
       <c r="Z21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AA21">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AC21">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AD21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH21">
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ21">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
-      <c r="A22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" spans="1:35">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>3.5714285714285716</v>
       </c>
-      <c r="C22" s="6">
+      <c r="B22" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="H22">
+        <v>1.5</v>
+      </c>
+      <c r="I22">
         <v>0.5</v>
       </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
+      <c r="J22">
         <v>1.5</v>
       </c>
-      <c r="J22">
-        <v>0.5</v>
-      </c>
-      <c r="K22">
-        <v>1.5</v>
-      </c>
-      <c r="L22" s="2">
+      <c r="K22" s="2">
         <f t="shared" si="2"/>
         <v>11.88</v>
       </c>
-      <c r="M22" s="2">
+      <c r="L22" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
       <c r="N22">
+        <v>2.5</v>
+      </c>
+      <c r="O22">
         <v>3</v>
       </c>
-      <c r="O22">
-        <v>2.5</v>
-      </c>
       <c r="P22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R22">
         <v>6</v>
@@ -5266,64 +5136,61 @@
         <v>6</v>
       </c>
       <c r="T22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U22">
         <v>1</v>
       </c>
       <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
         <v>3.5</v>
       </c>
-      <c r="X22" s="2">
+      <c r="W22" s="2">
         <f t="shared" si="10"/>
         <v>5.25</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="X22" s="1">
         <f t="shared" si="11"/>
         <v>10.5</v>
       </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
       <c r="Z22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA22">
         <v>2</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC22">
         <v>1</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE22">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AF22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AJ22">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BE22"/>
-  <conditionalFormatting sqref="B2:B22">
+  <autoFilter ref="A1:BD22"/>
+  <conditionalFormatting sqref="A2:A22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5335,7 +5202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L22">
+  <conditionalFormatting sqref="K2:K22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5359,567 +5226,551 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:32">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AC1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="X1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:32">
+      <c r="A2" s="6">
+        <f>SUM(B2:C2)</f>
+        <v>28.735736263736264</v>
+      </c>
+      <c r="B2" s="6">
+        <f>(SUM(D2:R2)-MIN(D2:R2))/14/100*10</f>
+        <v>9.749428571428572</v>
+      </c>
+      <c r="C2" s="6">
+        <f>(SUM(S2:AF2)-MIN(S2:AF2))/13/100*20</f>
+        <v>18.98630769230769</v>
+      </c>
+      <c r="D2" s="7">
+        <v>93.85</v>
+      </c>
+      <c r="E2" s="7">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7">
+        <v>100</v>
+      </c>
+      <c r="G2" s="7">
+        <v>95.21</v>
+      </c>
+      <c r="H2" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="I2" s="7">
+        <v>98.93</v>
+      </c>
+      <c r="J2" s="7">
+        <v>97.86</v>
+      </c>
+      <c r="K2" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="L2" s="7">
+        <v>100</v>
+      </c>
+      <c r="M2" s="7">
         <v>95</v>
       </c>
-      <c r="Y1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="6">
-        <f>SUM(C2:D2)</f>
-        <v>28.735736263736264</v>
-      </c>
-      <c r="C2" s="6">
-        <f>(SUM(E2:S2)-MIN(E2:S2))/14/100*10</f>
-        <v>9.749428571428572</v>
-      </c>
-      <c r="D2" s="6">
-        <f>(SUM(T2:AG2)-MIN(T2:AG2))/13/100*20</f>
-        <v>18.98630769230769</v>
-      </c>
-      <c r="E2" s="7">
-        <v>93.85</v>
-      </c>
-      <c r="F2" s="7">
-        <v>100</v>
-      </c>
-      <c r="G2" s="7">
-        <v>100</v>
-      </c>
-      <c r="H2" s="7">
-        <v>95.21</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="N2" s="7">
+        <v>97.19</v>
+      </c>
+      <c r="O2" s="7">
+        <v>94.38</v>
+      </c>
+      <c r="P2" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>100</v>
+      </c>
+      <c r="R2" s="7">
+        <v>27.75</v>
+      </c>
+      <c r="S2" s="7">
+        <v>97.59</v>
+      </c>
+      <c r="T2" s="7">
+        <v>83.99</v>
+      </c>
+      <c r="U2" s="7">
+        <v>95</v>
+      </c>
+      <c r="V2" s="7">
+        <v>93.5</v>
+      </c>
+      <c r="W2" s="7">
+        <v>96.88</v>
+      </c>
+      <c r="X2" s="7">
+        <v>96.07</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>99.25</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>86.88</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>98.13</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>99</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>88.59</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>95.83</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>94.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="6">
+        <f t="shared" ref="A3:A22" si="0">SUM(B3:C3)</f>
+        <v>27.201434065934066</v>
+      </c>
+      <c r="B3" s="6">
+        <f t="shared" ref="B3:B22" si="1">(SUM(D3:R3)-MIN(D3:R3))/14/100*10</f>
+        <v>9.4263571428571442</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C22" si="2">(SUM(S3:AF3)-MIN(S3:AF3))/13/100*20</f>
+        <v>17.77507692307692</v>
+      </c>
+      <c r="D3" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="E3" s="7">
+        <v>98.13</v>
+      </c>
+      <c r="F3" s="7">
+        <v>93.75</v>
+      </c>
+      <c r="G3" s="7">
+        <v>80.42</v>
+      </c>
+      <c r="H3" s="7">
+        <v>98.13</v>
+      </c>
+      <c r="I3" s="7">
+        <v>93.57</v>
+      </c>
+      <c r="J3" s="7">
+        <v>100</v>
+      </c>
+      <c r="K3" s="7">
+        <v>98.75</v>
+      </c>
+      <c r="L3" s="7">
+        <v>91.43</v>
+      </c>
+      <c r="M3" s="7">
+        <v>95</v>
+      </c>
+      <c r="N3" s="7">
         <v>96.25</v>
       </c>
-      <c r="J2" s="7">
-        <v>98.93</v>
-      </c>
-      <c r="K2" s="7">
-        <v>97.86</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="O3" s="7">
+        <v>94.38</v>
+      </c>
+      <c r="P3" s="7">
+        <v>78.33</v>
+      </c>
+      <c r="Q3" s="7">
         <v>96.25</v>
       </c>
-      <c r="M2" s="7">
-        <v>100</v>
-      </c>
-      <c r="N2" s="7">
-        <v>95</v>
-      </c>
-      <c r="O2" s="7">
-        <v>97.19</v>
-      </c>
-      <c r="P2" s="7">
-        <v>94.38</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>100</v>
-      </c>
-      <c r="R2" s="7">
-        <v>100</v>
-      </c>
-      <c r="S2" s="7">
-        <v>27.75</v>
-      </c>
-      <c r="T2" s="7">
-        <v>97.59</v>
-      </c>
-      <c r="U2" s="7">
-        <v>83.99</v>
-      </c>
-      <c r="V2" s="7">
-        <v>95</v>
-      </c>
-      <c r="W2" s="7">
-        <v>93.5</v>
-      </c>
-      <c r="X2" s="7">
-        <v>96.88</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>96.07</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>99.25</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>92.5</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>86.88</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>98.13</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>99</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>88.59</v>
-      </c>
-      <c r="AF2" s="7">
-        <v>95.83</v>
-      </c>
-      <c r="AG2" s="7">
-        <v>94.89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" ref="B3:B22" si="0">SUM(C3:D3)</f>
-        <v>27.201434065934066</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C22" si="1">(SUM(E3:S3)-MIN(E3:S3))/14/100*10</f>
-        <v>9.4263571428571442</v>
-      </c>
-      <c r="D3" s="6">
-        <f t="shared" ref="D3:D22" si="2">(SUM(T3:AG3)-MIN(T3:AG3))/13/100*20</f>
-        <v>17.77507692307692</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="R3" s="7">
+        <v>91.75</v>
+      </c>
+      <c r="S3" s="7">
+        <v>83.45</v>
+      </c>
+      <c r="T3" s="7">
+        <v>90.3</v>
+      </c>
+      <c r="U3" s="7">
+        <v>82.75</v>
+      </c>
+      <c r="V3" s="7">
+        <v>70.2</v>
+      </c>
+      <c r="W3" s="7">
         <v>91.88</v>
       </c>
-      <c r="F3" s="7">
-        <v>98.13</v>
-      </c>
-      <c r="G3" s="7">
-        <v>93.75</v>
-      </c>
-      <c r="H3" s="7">
-        <v>80.42</v>
-      </c>
-      <c r="I3" s="7">
-        <v>98.13</v>
-      </c>
-      <c r="J3" s="7">
-        <v>93.57</v>
-      </c>
-      <c r="K3" s="7">
-        <v>100</v>
-      </c>
-      <c r="L3" s="7">
-        <v>98.75</v>
-      </c>
-      <c r="M3" s="7">
-        <v>91.43</v>
-      </c>
-      <c r="N3" s="7">
-        <v>95</v>
-      </c>
-      <c r="O3" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="P3" s="7">
-        <v>94.38</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>78.33</v>
-      </c>
-      <c r="R3" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="S3" s="7">
-        <v>91.75</v>
-      </c>
-      <c r="T3" s="7">
-        <v>83.45</v>
-      </c>
-      <c r="U3" s="7">
-        <v>90.3</v>
-      </c>
-      <c r="V3" s="7">
-        <v>82.75</v>
-      </c>
-      <c r="W3" s="7">
-        <v>70.2</v>
-      </c>
       <c r="X3" s="7">
-        <v>91.88</v>
+        <v>96.43</v>
       </c>
       <c r="Y3" s="7">
-        <v>96.43</v>
+        <v>98.5</v>
       </c>
       <c r="Z3" s="7">
-        <v>98.5</v>
+        <v>94.17</v>
       </c>
       <c r="AA3" s="7">
-        <v>94.17</v>
+        <v>76.56</v>
       </c>
       <c r="AB3" s="7">
-        <v>76.56</v>
+        <v>95.31</v>
       </c>
       <c r="AC3" s="7">
-        <v>95.31</v>
+        <v>92</v>
       </c>
       <c r="AD3" s="7">
-        <v>92</v>
+        <v>75.47</v>
       </c>
       <c r="AE3" s="7">
-        <v>75.47</v>
+        <v>94.58</v>
       </c>
       <c r="AF3" s="7">
-        <v>94.58</v>
-      </c>
-      <c r="AG3" s="7">
         <v>83.98</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
+    <row r="4" spans="1:32">
+      <c r="A4" s="6">
+        <f t="shared" si="0"/>
+        <v>29.040192307692308</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>29.040192307692308</v>
-      </c>
-      <c r="C4" s="6">
         <f t="shared" si="1"/>
         <v>9.7105000000000015</v>
       </c>
-      <c r="D4" s="6">
+      <c r="C4" s="6">
         <f t="shared" si="2"/>
         <v>19.329692307692305</v>
       </c>
+      <c r="D4" s="7">
+        <v>98.33</v>
+      </c>
       <c r="E4" s="7">
-        <v>98.33</v>
+        <v>98.75</v>
       </c>
       <c r="F4" s="7">
-        <v>98.75</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7">
-        <v>100</v>
+        <v>95.42</v>
       </c>
       <c r="H4" s="7">
-        <v>95.42</v>
+        <v>95.63</v>
       </c>
       <c r="I4" s="7">
-        <v>95.63</v>
+        <v>97.14</v>
       </c>
       <c r="J4" s="7">
-        <v>97.14</v>
+        <v>95.71</v>
       </c>
       <c r="K4" s="7">
+        <v>100</v>
+      </c>
+      <c r="L4" s="7">
+        <v>90.36</v>
+      </c>
+      <c r="M4" s="7">
+        <v>100</v>
+      </c>
+      <c r="N4" s="7">
+        <v>98.13</v>
+      </c>
+      <c r="O4" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="P4" s="7">
+        <v>97.5</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="R4" s="7">
+        <v>85</v>
+      </c>
+      <c r="S4" s="7">
+        <v>98.64</v>
+      </c>
+      <c r="T4" s="7">
+        <v>99.05</v>
+      </c>
+      <c r="U4" s="7">
+        <v>96.5</v>
+      </c>
+      <c r="V4" s="7">
+        <v>94</v>
+      </c>
+      <c r="W4" s="7">
+        <v>93.44</v>
+      </c>
+      <c r="X4" s="7">
         <v>95.71</v>
       </c>
-      <c r="L4" s="7">
-        <v>100</v>
-      </c>
-      <c r="M4" s="7">
-        <v>90.36</v>
-      </c>
-      <c r="N4" s="7">
-        <v>100</v>
-      </c>
-      <c r="O4" s="7">
-        <v>98.13</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="Y4" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>89.17</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>94.84</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>97</v>
+      </c>
+      <c r="AD4" s="7">
         <v>96.25</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="AE4" s="7">
         <v>97.5</v>
       </c>
-      <c r="R4" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="S4" s="7">
-        <v>85</v>
-      </c>
-      <c r="T4" s="7">
-        <v>98.64</v>
-      </c>
-      <c r="U4" s="7">
-        <v>99.05</v>
-      </c>
-      <c r="V4" s="7">
-        <v>96.5</v>
-      </c>
-      <c r="W4" s="7">
-        <v>94</v>
-      </c>
-      <c r="X4" s="7">
-        <v>93.44</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>95.71</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>98.5</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>89.17</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>94.84</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>100</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>97</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>96.25</v>
-      </c>
       <c r="AF4" s="7">
-        <v>97.5</v>
-      </c>
-      <c r="AG4" s="7">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
+    <row r="5" spans="1:32">
+      <c r="A5" s="6">
+        <f t="shared" si="0"/>
+        <v>28.751417582417577</v>
       </c>
       <c r="B5" s="6">
-        <f t="shared" si="0"/>
-        <v>28.751417582417577</v>
-      </c>
-      <c r="C5" s="6">
         <f t="shared" si="1"/>
         <v>9.6075714285714291</v>
       </c>
-      <c r="D5" s="6">
+      <c r="C5" s="6">
         <f t="shared" si="2"/>
         <v>19.143846153846148</v>
       </c>
+      <c r="D5" s="7">
+        <v>93.44</v>
+      </c>
       <c r="E5" s="7">
-        <v>93.44</v>
+        <v>94.38</v>
       </c>
       <c r="F5" s="7">
-        <v>94.38</v>
+        <v>97.5</v>
       </c>
       <c r="G5" s="7">
+        <v>91.25</v>
+      </c>
+      <c r="H5" s="7">
+        <v>95</v>
+      </c>
+      <c r="I5" s="7">
+        <v>98.93</v>
+      </c>
+      <c r="J5" s="7">
+        <v>97.86</v>
+      </c>
+      <c r="K5" s="7">
         <v>97.5</v>
       </c>
-      <c r="H5" s="7">
-        <v>91.25</v>
-      </c>
-      <c r="I5" s="7">
-        <v>95</v>
-      </c>
-      <c r="J5" s="7">
-        <v>98.93</v>
-      </c>
-      <c r="K5" s="7">
-        <v>97.86</v>
-      </c>
       <c r="L5" s="7">
-        <v>97.5</v>
+        <v>93.57</v>
       </c>
       <c r="M5" s="7">
-        <v>93.57</v>
+        <v>98.75</v>
       </c>
       <c r="N5" s="7">
-        <v>98.75</v>
+        <v>100</v>
       </c>
       <c r="O5" s="7">
-        <v>100</v>
+        <v>86.88</v>
       </c>
       <c r="P5" s="7">
-        <v>86.88</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7">
         <v>100</v>
       </c>
       <c r="R5" s="7">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="S5" s="7">
-        <v>30</v>
+        <v>91.59</v>
       </c>
       <c r="T5" s="7">
-        <v>91.59</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="U5" s="7">
-        <v>76.959999999999994</v>
+        <v>96</v>
       </c>
       <c r="V5" s="7">
-        <v>96</v>
+        <v>96.6</v>
       </c>
       <c r="W5" s="7">
-        <v>96.6</v>
+        <v>98.44</v>
       </c>
       <c r="X5" s="7">
-        <v>98.44</v>
+        <v>95.71</v>
       </c>
       <c r="Y5" s="7">
-        <v>95.71</v>
+        <v>100</v>
       </c>
       <c r="Z5" s="7">
-        <v>100</v>
+        <v>97.71</v>
       </c>
       <c r="AA5" s="7">
-        <v>97.71</v>
+        <v>90.63</v>
       </c>
       <c r="AB5" s="7">
-        <v>90.63</v>
+        <v>100</v>
       </c>
       <c r="AC5" s="7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD5" s="7">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="AE5" s="7">
-        <v>90</v>
+        <v>99.58</v>
       </c>
       <c r="AF5" s="7">
-        <v>99.58</v>
-      </c>
-      <c r="AG5" s="7">
         <v>89.09</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="5" t="s">
-        <v>63</v>
+    <row r="6" spans="1:32">
+      <c r="A6" s="6">
+        <f t="shared" si="0"/>
+        <v>29.316912087912094</v>
       </c>
       <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>29.316912087912094</v>
-      </c>
-      <c r="C6" s="6">
         <f t="shared" si="1"/>
         <v>9.7801428571428577</v>
       </c>
-      <c r="D6" s="6">
+      <c r="C6" s="6">
         <f t="shared" si="2"/>
         <v>19.536769230769234</v>
       </c>
+      <c r="D6" s="7">
+        <v>99.69</v>
+      </c>
       <c r="E6" s="7">
-        <v>99.69</v>
+        <v>100</v>
       </c>
       <c r="F6" s="7">
         <v>100</v>
       </c>
       <c r="G6" s="7">
-        <v>100</v>
+        <v>91.67</v>
       </c>
       <c r="H6" s="7">
-        <v>91.67</v>
+        <v>97.5</v>
       </c>
       <c r="I6" s="7">
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="J6" s="7">
         <v>100</v>
@@ -5928,1160 +5779,1127 @@
         <v>100</v>
       </c>
       <c r="L6" s="7">
-        <v>100</v>
+        <v>94.64</v>
       </c>
       <c r="M6" s="7">
-        <v>94.64</v>
+        <v>95</v>
       </c>
       <c r="N6" s="7">
-        <v>95</v>
+        <v>98.13</v>
       </c>
       <c r="O6" s="7">
+        <v>94.38</v>
+      </c>
+      <c r="P6" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="R6" s="7">
+        <v>97.38</v>
+      </c>
+      <c r="S6" s="7">
+        <v>97</v>
+      </c>
+      <c r="T6" s="7">
+        <v>99.11</v>
+      </c>
+      <c r="U6" s="7">
+        <v>95.5</v>
+      </c>
+      <c r="V6" s="7">
+        <v>91</v>
+      </c>
+      <c r="W6" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="X6" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>100</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>91.56</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>97.19</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="7">
         <v>98.13</v>
       </c>
-      <c r="P6" s="7">
-        <v>94.38</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>100</v>
-      </c>
-      <c r="R6" s="7">
-        <v>92.5</v>
-      </c>
-      <c r="S6" s="7">
-        <v>97.38</v>
-      </c>
-      <c r="T6" s="7">
-        <v>97</v>
-      </c>
-      <c r="U6" s="7">
-        <v>99.11</v>
-      </c>
-      <c r="V6" s="7">
-        <v>95.5</v>
-      </c>
-      <c r="W6" s="7">
-        <v>91</v>
-      </c>
-      <c r="X6" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>100</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>97</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>100</v>
-      </c>
-      <c r="AB6" s="7">
-        <v>91.56</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>97.19</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>100</v>
-      </c>
       <c r="AE6" s="7">
-        <v>98.13</v>
+        <v>99.29</v>
       </c>
       <c r="AF6" s="7">
-        <v>99.29</v>
-      </c>
-      <c r="AG6" s="7">
         <v>98.86</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="5" t="s">
-        <v>64</v>
+    <row r="7" spans="1:32">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
+        <v>29.459170329670329</v>
       </c>
       <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>29.459170329670329</v>
-      </c>
-      <c r="C7" s="6">
         <f t="shared" si="1"/>
         <v>9.7817857142857143</v>
       </c>
-      <c r="D7" s="6">
+      <c r="C7" s="6">
         <f t="shared" si="2"/>
         <v>19.677384615384614</v>
       </c>
+      <c r="D7" s="7">
+        <v>97.5</v>
+      </c>
       <c r="E7" s="7">
+        <v>98.75</v>
+      </c>
+      <c r="F7" s="7">
+        <v>100</v>
+      </c>
+      <c r="G7" s="7">
+        <v>94.17</v>
+      </c>
+      <c r="H7" s="7">
+        <v>100</v>
+      </c>
+      <c r="I7" s="7">
+        <v>100</v>
+      </c>
+      <c r="J7" s="7">
+        <v>93.57</v>
+      </c>
+      <c r="K7" s="7">
+        <v>100</v>
+      </c>
+      <c r="L7" s="7">
+        <v>95.71</v>
+      </c>
+      <c r="M7" s="7">
+        <v>98.75</v>
+      </c>
+      <c r="N7" s="7">
+        <v>100</v>
+      </c>
+      <c r="O7" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="P7" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="R7" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="S7" s="7">
+        <v>97.73</v>
+      </c>
+      <c r="T7" s="7">
+        <v>98.69</v>
+      </c>
+      <c r="U7" s="7">
+        <v>99.5</v>
+      </c>
+      <c r="V7" s="7">
+        <v>97</v>
+      </c>
+      <c r="W7" s="7">
         <v>97.5</v>
       </c>
-      <c r="F7" s="7">
+      <c r="X7" s="7">
+        <v>98.93</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>97.75</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>99.17</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>93.44</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>99.38</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>95.31</v>
+      </c>
+      <c r="AE7" s="7">
         <v>98.75</v>
       </c>
-      <c r="G7" s="7">
-        <v>100</v>
-      </c>
-      <c r="H7" s="7">
-        <v>94.17</v>
-      </c>
-      <c r="I7" s="7">
-        <v>100</v>
-      </c>
-      <c r="J7" s="7">
-        <v>100</v>
-      </c>
-      <c r="K7" s="7">
-        <v>93.57</v>
-      </c>
-      <c r="L7" s="7">
-        <v>100</v>
-      </c>
-      <c r="M7" s="7">
-        <v>95.71</v>
-      </c>
-      <c r="N7" s="7">
-        <v>98.75</v>
-      </c>
-      <c r="O7" s="7">
-        <v>100</v>
-      </c>
-      <c r="P7" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>92.5</v>
-      </c>
-      <c r="R7" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="S7" s="7">
-        <v>98.5</v>
-      </c>
-      <c r="T7" s="7">
-        <v>97.73</v>
-      </c>
-      <c r="U7" s="7">
-        <v>98.69</v>
-      </c>
-      <c r="V7" s="7">
-        <v>99.5</v>
-      </c>
-      <c r="W7" s="7">
-        <v>97</v>
-      </c>
-      <c r="X7" s="7">
-        <v>97.5</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>98.93</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>97.75</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>99.17</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>93.44</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>99.38</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>100</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>95.31</v>
-      </c>
       <c r="AF7" s="7">
-        <v>98.75</v>
-      </c>
-      <c r="AG7" s="7">
         <v>99.32</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="5" t="s">
-        <v>65</v>
+    <row r="8" spans="1:32">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>28.94140659340659</v>
       </c>
       <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>28.94140659340659</v>
-      </c>
-      <c r="C8" s="6">
         <f t="shared" si="1"/>
         <v>9.7677142857142858</v>
       </c>
-      <c r="D8" s="6">
+      <c r="C8" s="6">
         <f t="shared" si="2"/>
         <v>19.173692307692306</v>
       </c>
+      <c r="D8" s="7">
+        <v>92.5</v>
+      </c>
       <c r="E8" s="7">
-        <v>92.5</v>
+        <v>98.75</v>
       </c>
       <c r="F8" s="7">
+        <v>100</v>
+      </c>
+      <c r="G8" s="7">
+        <v>93.13</v>
+      </c>
+      <c r="H8" s="7">
+        <v>94.38</v>
+      </c>
+      <c r="I8" s="7">
+        <v>99.29</v>
+      </c>
+      <c r="J8" s="7">
+        <v>100</v>
+      </c>
+      <c r="K8" s="7">
         <v>98.75</v>
       </c>
-      <c r="G8" s="7">
-        <v>100</v>
-      </c>
-      <c r="H8" s="7">
-        <v>93.13</v>
-      </c>
-      <c r="I8" s="7">
-        <v>94.38</v>
-      </c>
-      <c r="J8" s="7">
-        <v>99.29</v>
-      </c>
-      <c r="K8" s="7">
-        <v>100</v>
-      </c>
       <c r="L8" s="7">
-        <v>98.75</v>
+        <v>98.93</v>
       </c>
       <c r="M8" s="7">
+        <v>100</v>
+      </c>
+      <c r="N8" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="O8" s="7">
+        <v>97.5</v>
+      </c>
+      <c r="P8" s="7">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="R8" s="7">
+        <v>99.25</v>
+      </c>
+      <c r="S8" s="7">
+        <v>87.5</v>
+      </c>
+      <c r="T8" s="7">
+        <v>92.26</v>
+      </c>
+      <c r="U8" s="7">
+        <v>100</v>
+      </c>
+      <c r="V8" s="7">
+        <v>90</v>
+      </c>
+      <c r="W8" s="7">
+        <v>95</v>
+      </c>
+      <c r="X8" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>90.69</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>93.44</v>
+      </c>
+      <c r="AB8" s="7">
         <v>98.93</v>
       </c>
-      <c r="N8" s="7">
-        <v>100</v>
-      </c>
-      <c r="O8" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="P8" s="7">
-        <v>97.5</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>95</v>
-      </c>
-      <c r="R8" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="S8" s="7">
-        <v>99.25</v>
-      </c>
-      <c r="T8" s="7">
-        <v>87.5</v>
-      </c>
-      <c r="U8" s="7">
-        <v>92.26</v>
-      </c>
-      <c r="V8" s="7">
-        <v>100</v>
-      </c>
-      <c r="W8" s="7">
+      <c r="AC8" s="7">
         <v>90</v>
       </c>
-      <c r="X8" s="7">
-        <v>95</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>100</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>100</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>90.69</v>
-      </c>
-      <c r="AB8" s="7">
-        <v>93.44</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>98.93</v>
-      </c>
       <c r="AD8" s="7">
-        <v>90</v>
+        <v>98.59</v>
       </c>
       <c r="AE8" s="7">
-        <v>98.59</v>
+        <v>99.08</v>
       </c>
       <c r="AF8" s="7">
-        <v>99.08</v>
-      </c>
-      <c r="AG8" s="7">
         <v>98.3</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
+    <row r="9" spans="1:32">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>29.327054945054947</v>
       </c>
       <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>29.327054945054947</v>
-      </c>
-      <c r="C9" s="6">
         <f t="shared" si="1"/>
         <v>9.8222857142857141</v>
       </c>
-      <c r="D9" s="6">
+      <c r="C9" s="6">
         <f t="shared" si="2"/>
         <v>19.504769230769231</v>
       </c>
+      <c r="D9" s="7">
+        <v>98.75</v>
+      </c>
       <c r="E9" s="7">
         <v>98.75</v>
       </c>
       <c r="F9" s="7">
-        <v>98.75</v>
+        <v>91.25</v>
       </c>
       <c r="G9" s="7">
-        <v>91.25</v>
+        <v>97.5</v>
       </c>
       <c r="H9" s="7">
+        <v>98.13</v>
+      </c>
+      <c r="I9" s="7">
+        <v>99.29</v>
+      </c>
+      <c r="J9" s="7">
+        <v>95.71</v>
+      </c>
+      <c r="K9" s="7">
         <v>97.5</v>
       </c>
-      <c r="I9" s="7">
+      <c r="L9" s="7">
+        <v>97.86</v>
+      </c>
+      <c r="M9" s="7">
+        <v>100</v>
+      </c>
+      <c r="N9" s="7">
+        <v>100</v>
+      </c>
+      <c r="O9" s="7">
         <v>98.13</v>
       </c>
-      <c r="J9" s="7">
-        <v>99.29</v>
-      </c>
-      <c r="K9" s="7">
-        <v>95.71</v>
-      </c>
-      <c r="L9" s="7">
-        <v>97.5</v>
-      </c>
-      <c r="M9" s="7">
-        <v>97.86</v>
-      </c>
-      <c r="N9" s="7">
-        <v>100</v>
-      </c>
-      <c r="O9" s="7">
-        <v>100</v>
-      </c>
       <c r="P9" s="7">
-        <v>98.13</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="7">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="R9" s="7">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="S9" s="7">
-        <v>98.5</v>
+        <v>96.45</v>
       </c>
       <c r="T9" s="7">
-        <v>96.45</v>
+        <v>99.35</v>
       </c>
       <c r="U9" s="7">
-        <v>99.35</v>
+        <v>100</v>
       </c>
       <c r="V9" s="7">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W9" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="X9" s="7">
+        <v>96.79</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>95.5</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>95.31</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>97.19</v>
+      </c>
+      <c r="AC9" s="7">
         <v>97</v>
       </c>
-      <c r="X9" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>96.79</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>95.5</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="7">
+      <c r="AD9" s="7">
         <v>95.31</v>
       </c>
-      <c r="AC9" s="7">
-        <v>97.19</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>97</v>
-      </c>
       <c r="AE9" s="7">
-        <v>95.31</v>
+        <v>98.33</v>
       </c>
       <c r="AF9" s="7">
-        <v>98.33</v>
-      </c>
-      <c r="AG9" s="7">
         <v>98.64</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="5" t="s">
-        <v>67</v>
+    <row r="10" spans="1:32">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>29.069681318681315</v>
       </c>
       <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>29.069681318681315</v>
-      </c>
-      <c r="C10" s="6">
         <f t="shared" si="1"/>
         <v>9.7481428571428559</v>
       </c>
-      <c r="D10" s="6">
+      <c r="C10" s="6">
         <f t="shared" si="2"/>
         <v>19.321538461538459</v>
       </c>
+      <c r="D10" s="7">
+        <v>95.83</v>
+      </c>
       <c r="E10" s="7">
-        <v>95.83</v>
+        <v>95</v>
       </c>
       <c r="F10" s="7">
+        <v>98.75</v>
+      </c>
+      <c r="G10" s="7">
+        <v>97.71</v>
+      </c>
+      <c r="H10" s="7">
+        <v>99.38</v>
+      </c>
+      <c r="I10" s="7">
+        <v>100</v>
+      </c>
+      <c r="J10" s="7">
+        <v>100</v>
+      </c>
+      <c r="K10" s="7">
+        <v>97.5</v>
+      </c>
+      <c r="L10" s="7">
+        <v>93.57</v>
+      </c>
+      <c r="M10" s="7">
+        <v>98.75</v>
+      </c>
+      <c r="N10" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="O10" s="7">
+        <v>90.63</v>
+      </c>
+      <c r="P10" s="7">
         <v>95</v>
       </c>
-      <c r="G10" s="7">
-        <v>98.75</v>
-      </c>
-      <c r="H10" s="7">
-        <v>97.71</v>
-      </c>
-      <c r="I10" s="7">
-        <v>99.38</v>
-      </c>
-      <c r="J10" s="7">
-        <v>100</v>
-      </c>
-      <c r="K10" s="7">
-        <v>100</v>
-      </c>
-      <c r="L10" s="7">
-        <v>97.5</v>
-      </c>
-      <c r="M10" s="7">
-        <v>93.57</v>
-      </c>
-      <c r="N10" s="7">
-        <v>98.75</v>
-      </c>
-      <c r="O10" s="7">
+      <c r="Q10" s="7">
+        <v>100</v>
+      </c>
+      <c r="R10" s="7">
+        <v>97</v>
+      </c>
+      <c r="S10" s="7">
+        <v>97.27</v>
+      </c>
+      <c r="T10" s="7">
+        <v>99.52</v>
+      </c>
+      <c r="U10" s="7">
+        <v>95.17</v>
+      </c>
+      <c r="V10" s="7">
+        <v>88.2</v>
+      </c>
+      <c r="W10" s="7">
+        <v>96.88</v>
+      </c>
+      <c r="X10" s="7">
+        <v>97.86</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>97</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>94.38</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>96.56</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>96</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>93.44</v>
+      </c>
+      <c r="AE10" s="7">
         <v>96.25</v>
       </c>
-      <c r="P10" s="7">
-        <v>90.63</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>95</v>
-      </c>
-      <c r="R10" s="7">
-        <v>100</v>
-      </c>
-      <c r="S10" s="7">
-        <v>97</v>
-      </c>
-      <c r="T10" s="7">
-        <v>97.27</v>
-      </c>
-      <c r="U10" s="7">
-        <v>99.52</v>
-      </c>
-      <c r="V10" s="7">
-        <v>95.17</v>
-      </c>
-      <c r="W10" s="7">
-        <v>88.2</v>
-      </c>
-      <c r="X10" s="7">
-        <v>96.88</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>97.86</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>97</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>100</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>94.38</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>96.56</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>96</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>93.44</v>
-      </c>
       <c r="AF10" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="AG10" s="7">
         <v>95.57</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="5" t="s">
-        <v>68</v>
+    <row r="11" spans="1:32">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>27.892554945054947</v>
       </c>
       <c r="B11" s="6">
-        <f t="shared" si="0"/>
-        <v>27.892554945054947</v>
-      </c>
-      <c r="C11" s="6">
         <f t="shared" si="1"/>
         <v>9.3217857142857152</v>
       </c>
-      <c r="D11" s="6">
+      <c r="C11" s="6">
         <f t="shared" si="2"/>
         <v>18.57076923076923</v>
       </c>
+      <c r="D11" s="7">
+        <v>92.29</v>
+      </c>
       <c r="E11" s="7">
-        <v>92.29</v>
+        <v>82.5</v>
       </c>
       <c r="F11" s="7">
-        <v>82.5</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7">
-        <v>90</v>
+        <v>89.17</v>
       </c>
       <c r="H11" s="7">
-        <v>89.17</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>87.14</v>
       </c>
       <c r="J11" s="7">
-        <v>87.14</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7">
+        <v>98.75</v>
+      </c>
+      <c r="L11" s="7">
+        <v>93.57</v>
+      </c>
+      <c r="M11" s="7">
         <v>95</v>
       </c>
-      <c r="L11" s="7">
-        <v>98.75</v>
-      </c>
-      <c r="M11" s="7">
-        <v>93.57</v>
-      </c>
       <c r="N11" s="7">
-        <v>95</v>
+        <v>96.25</v>
       </c>
       <c r="O11" s="7">
+        <v>86.88</v>
+      </c>
+      <c r="P11" s="7">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>100</v>
+      </c>
+      <c r="R11" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="S11" s="7">
+        <v>93.41</v>
+      </c>
+      <c r="T11" s="7">
+        <v>97.32</v>
+      </c>
+      <c r="U11" s="7">
+        <v>82.25</v>
+      </c>
+      <c r="V11" s="7">
+        <v>76.5</v>
+      </c>
+      <c r="W11" s="7">
+        <v>93.75</v>
+      </c>
+      <c r="X11" s="7">
+        <v>87.86</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>97</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>92.92</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>87.81</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>97.13</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>96</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>90.63</v>
+      </c>
+      <c r="AE11" s="7">
         <v>96.25</v>
       </c>
-      <c r="P11" s="7">
-        <v>86.88</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>100</v>
-      </c>
-      <c r="R11" s="7">
-        <v>100</v>
-      </c>
-      <c r="S11" s="7">
-        <v>98.5</v>
-      </c>
-      <c r="T11" s="7">
-        <v>93.41</v>
-      </c>
-      <c r="U11" s="7">
-        <v>97.32</v>
-      </c>
-      <c r="V11" s="7">
-        <v>82.25</v>
-      </c>
-      <c r="W11" s="7">
-        <v>76.5</v>
-      </c>
-      <c r="X11" s="7">
-        <v>93.75</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>87.86</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>97</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>92.92</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>87.81</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>97.13</v>
-      </c>
-      <c r="AD11" s="7">
-        <v>96</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>90.63</v>
-      </c>
       <c r="AF11" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="AG11" s="7">
         <v>94.77</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="5" t="s">
-        <v>69</v>
+    <row r="12" spans="1:32">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>26.300664835164838</v>
       </c>
       <c r="B12" s="6">
-        <f t="shared" si="0"/>
-        <v>26.300664835164838</v>
-      </c>
-      <c r="C12" s="6">
         <f t="shared" si="1"/>
         <v>9.0043571428571454</v>
       </c>
-      <c r="D12" s="6">
+      <c r="C12" s="6">
         <f t="shared" si="2"/>
         <v>17.296307692307693</v>
       </c>
+      <c r="D12" s="7">
+        <v>87.81</v>
+      </c>
       <c r="E12" s="7">
-        <v>87.81</v>
+        <v>93.13</v>
       </c>
       <c r="F12" s="7">
-        <v>93.13</v>
+        <v>92.5</v>
       </c>
       <c r="G12" s="7">
-        <v>92.5</v>
+        <v>84.79</v>
       </c>
       <c r="H12" s="7">
-        <v>84.79</v>
+        <v>91.88</v>
       </c>
       <c r="I12" s="7">
-        <v>91.88</v>
+        <v>88.33</v>
       </c>
       <c r="J12" s="7">
-        <v>88.33</v>
+        <v>88.57</v>
       </c>
       <c r="K12" s="7">
-        <v>88.57</v>
+        <v>95</v>
       </c>
       <c r="L12" s="7">
-        <v>95</v>
+        <v>90.36</v>
       </c>
       <c r="M12" s="7">
-        <v>90.36</v>
+        <v>87.5</v>
       </c>
       <c r="N12" s="7">
-        <v>87.5</v>
+        <v>90.63</v>
       </c>
       <c r="O12" s="7">
-        <v>90.63</v>
+        <v>89.69</v>
       </c>
       <c r="P12" s="7">
-        <v>89.69</v>
+        <v>84.17</v>
       </c>
       <c r="Q12" s="7">
-        <v>84.17</v>
+        <v>96.25</v>
       </c>
       <c r="R12" s="7">
-        <v>96.25</v>
+        <v>78.75</v>
       </c>
       <c r="S12" s="7">
-        <v>78.75</v>
+        <v>93.82</v>
       </c>
       <c r="T12" s="7">
-        <v>93.82</v>
+        <v>97.74</v>
       </c>
       <c r="U12" s="7">
-        <v>97.74</v>
+        <v>89.25</v>
       </c>
       <c r="V12" s="7">
-        <v>89.25</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="W12" s="7">
-        <v>73.400000000000006</v>
+        <v>82.19</v>
       </c>
       <c r="X12" s="7">
-        <v>82.19</v>
+        <v>90</v>
       </c>
       <c r="Y12" s="7">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Z12" s="7">
-        <v>97</v>
+        <v>90.42</v>
       </c>
       <c r="AA12" s="7">
-        <v>90.42</v>
+        <v>68.28</v>
       </c>
       <c r="AB12" s="7">
-        <v>68.28</v>
+        <v>97.75</v>
       </c>
       <c r="AC12" s="7">
-        <v>97.75</v>
+        <v>68.33</v>
       </c>
       <c r="AD12" s="7">
-        <v>68.33</v>
+        <v>76.88</v>
       </c>
       <c r="AE12" s="7">
-        <v>76.88</v>
+        <v>82.71</v>
       </c>
       <c r="AF12" s="7">
-        <v>82.71</v>
-      </c>
-      <c r="AG12" s="7">
         <v>84.77</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="5" t="s">
-        <v>70</v>
+    <row r="13" spans="1:32">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>28.016582417582423</v>
       </c>
       <c r="B13" s="6">
-        <f t="shared" si="0"/>
-        <v>28.016582417582423</v>
-      </c>
-      <c r="C13" s="6">
         <f t="shared" si="1"/>
         <v>9.3524285714285718</v>
       </c>
-      <c r="D13" s="6">
+      <c r="C13" s="6">
         <f t="shared" si="2"/>
         <v>18.664153846153852</v>
       </c>
+      <c r="D13" s="7">
+        <v>75</v>
+      </c>
       <c r="E13" s="7">
-        <v>75</v>
+        <v>97.5</v>
       </c>
       <c r="F13" s="7">
-        <v>97.5</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7">
-        <v>95</v>
+        <v>91.25</v>
       </c>
       <c r="H13" s="7">
-        <v>91.25</v>
+        <v>93.75</v>
       </c>
       <c r="I13" s="7">
+        <v>100</v>
+      </c>
+      <c r="J13" s="7">
+        <v>90.71</v>
+      </c>
+      <c r="K13" s="7">
+        <v>98.75</v>
+      </c>
+      <c r="L13" s="7">
+        <v>92.86</v>
+      </c>
+      <c r="M13" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>93.44</v>
+      </c>
+      <c r="O13" s="7">
         <v>93.75</v>
       </c>
-      <c r="J13" s="7">
-        <v>100</v>
-      </c>
-      <c r="K13" s="7">
-        <v>90.71</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="P13" s="7">
+        <v>90.83</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="R13" s="7">
+        <v>82.75</v>
+      </c>
+      <c r="S13" s="7">
+        <v>93.5</v>
+      </c>
+      <c r="T13" s="7">
+        <v>99.46</v>
+      </c>
+      <c r="U13" s="7">
+        <v>93</v>
+      </c>
+      <c r="V13" s="7">
+        <v>85</v>
+      </c>
+      <c r="W13" s="7">
+        <v>97.81</v>
+      </c>
+      <c r="X13" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>100</v>
+      </c>
+      <c r="Z13" s="7">
         <v>98.75</v>
       </c>
-      <c r="M13" s="7">
-        <v>92.86</v>
-      </c>
-      <c r="N13" s="7">
-        <v>92.5</v>
-      </c>
-      <c r="O13" s="7">
-        <v>93.44</v>
-      </c>
-      <c r="P13" s="7">
-        <v>93.75</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>90.83</v>
-      </c>
-      <c r="R13" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="S13" s="7">
-        <v>82.75</v>
-      </c>
-      <c r="T13" s="7">
-        <v>93.5</v>
-      </c>
-      <c r="U13" s="7">
-        <v>99.46</v>
-      </c>
-      <c r="V13" s="7">
-        <v>93</v>
-      </c>
-      <c r="W13" s="7">
-        <v>85</v>
-      </c>
-      <c r="X13" s="7">
-        <v>97.81</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>100</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>100</v>
-      </c>
       <c r="AA13" s="7">
-        <v>98.75</v>
+        <v>85.94</v>
       </c>
       <c r="AB13" s="7">
-        <v>85.94</v>
+        <v>96.88</v>
       </c>
       <c r="AC13" s="7">
-        <v>96.88</v>
+        <v>87</v>
       </c>
       <c r="AD13" s="7">
-        <v>87</v>
+        <v>78.44</v>
       </c>
       <c r="AE13" s="7">
-        <v>78.44</v>
+        <v>86.17</v>
       </c>
       <c r="AF13" s="7">
-        <v>86.17</v>
-      </c>
-      <c r="AG13" s="7">
         <v>89.66</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
+    <row r="14" spans="1:32">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>29.014170329670332</v>
       </c>
       <c r="B14" s="6">
-        <f t="shared" si="0"/>
-        <v>29.014170329670332</v>
-      </c>
-      <c r="C14" s="6">
         <f t="shared" si="1"/>
         <v>9.7247857142857157</v>
       </c>
-      <c r="D14" s="6">
+      <c r="C14" s="6">
         <f t="shared" si="2"/>
         <v>19.289384615384616</v>
       </c>
+      <c r="D14" s="7">
+        <v>94.9</v>
+      </c>
       <c r="E14" s="7">
-        <v>94.9</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7">
-        <v>100</v>
+        <v>98.75</v>
       </c>
       <c r="G14" s="7">
-        <v>98.75</v>
+        <v>95.42</v>
       </c>
       <c r="H14" s="7">
-        <v>95.42</v>
+        <v>96.25</v>
       </c>
       <c r="I14" s="7">
+        <v>97.14</v>
+      </c>
+      <c r="J14" s="7">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="M14" s="7">
+        <v>100</v>
+      </c>
+      <c r="N14" s="7">
+        <v>98.13</v>
+      </c>
+      <c r="O14" s="7">
+        <v>94.38</v>
+      </c>
+      <c r="P14" s="7">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>100</v>
+      </c>
+      <c r="R14" s="7">
+        <v>94</v>
+      </c>
+      <c r="S14" s="7">
+        <v>99.32</v>
+      </c>
+      <c r="T14" s="7">
+        <v>97.86</v>
+      </c>
+      <c r="U14" s="7">
+        <v>93.5</v>
+      </c>
+      <c r="V14" s="7">
+        <v>90</v>
+      </c>
+      <c r="W14" s="7">
+        <v>93.13</v>
+      </c>
+      <c r="X14" s="7">
+        <v>94.29</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>97.92</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>85.47</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>97.81</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>100</v>
+      </c>
+      <c r="AE14" s="7">
         <v>96.25</v>
       </c>
-      <c r="J14" s="7">
-        <v>97.14</v>
-      </c>
-      <c r="K14" s="7">
-        <v>100</v>
-      </c>
-      <c r="L14" s="7">
-        <v>100</v>
-      </c>
-      <c r="M14" s="7">
-        <v>92.5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>100</v>
-      </c>
-      <c r="O14" s="7">
-        <v>98.13</v>
-      </c>
-      <c r="P14" s="7">
-        <v>94.38</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>85</v>
-      </c>
-      <c r="R14" s="7">
-        <v>100</v>
-      </c>
-      <c r="S14" s="7">
-        <v>94</v>
-      </c>
-      <c r="T14" s="7">
-        <v>99.32</v>
-      </c>
-      <c r="U14" s="7">
-        <v>97.86</v>
-      </c>
-      <c r="V14" s="7">
-        <v>93.5</v>
-      </c>
-      <c r="W14" s="7">
-        <v>90</v>
-      </c>
-      <c r="X14" s="7">
-        <v>93.13</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>94.29</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>98.5</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>97.92</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>85.47</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>97.81</v>
-      </c>
-      <c r="AD14" s="7">
-        <v>100</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>100</v>
-      </c>
       <c r="AF14" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="AG14" s="7">
         <v>95.23</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="5" t="s">
-        <v>72</v>
+    <row r="15" spans="1:32">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>28.343664835164837</v>
       </c>
       <c r="B15" s="6">
-        <f t="shared" si="0"/>
-        <v>28.343664835164837</v>
-      </c>
-      <c r="C15" s="6">
         <f t="shared" si="1"/>
         <v>9.5813571428571453</v>
       </c>
-      <c r="D15" s="6">
+      <c r="C15" s="6">
         <f t="shared" si="2"/>
         <v>18.76230769230769</v>
       </c>
+      <c r="D15" s="7">
+        <v>95.31</v>
+      </c>
       <c r="E15" s="7">
-        <v>95.31</v>
+        <v>99.38</v>
       </c>
       <c r="F15" s="7">
-        <v>99.38</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="H15" s="7">
+        <v>95.63</v>
+      </c>
+      <c r="I15" s="7">
+        <v>92.38</v>
+      </c>
+      <c r="J15" s="7">
+        <v>99.29</v>
+      </c>
+      <c r="K15" s="7">
+        <v>97.5</v>
+      </c>
+      <c r="L15" s="7">
+        <v>94.64</v>
+      </c>
+      <c r="M15" s="7">
+        <v>97.5</v>
+      </c>
+      <c r="N15" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="O15" s="7">
+        <v>94.38</v>
+      </c>
+      <c r="P15" s="7">
         <v>95</v>
       </c>
-      <c r="H15" s="7">
-        <v>81.25</v>
-      </c>
-      <c r="I15" s="7">
-        <v>95.63</v>
-      </c>
-      <c r="J15" s="7">
-        <v>92.38</v>
-      </c>
-      <c r="K15" s="7">
-        <v>99.29</v>
-      </c>
-      <c r="L15" s="7">
-        <v>97.5</v>
-      </c>
-      <c r="M15" s="7">
-        <v>94.64</v>
-      </c>
-      <c r="N15" s="7">
-        <v>97.5</v>
-      </c>
-      <c r="O15" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="P15" s="7">
-        <v>94.38</v>
-      </c>
       <c r="Q15" s="7">
+        <v>100</v>
+      </c>
+      <c r="R15" s="7">
+        <v>89.13</v>
+      </c>
+      <c r="S15" s="7">
+        <v>97.91</v>
+      </c>
+      <c r="T15" s="7">
+        <v>96.43</v>
+      </c>
+      <c r="U15" s="7">
+        <v>85.75</v>
+      </c>
+      <c r="V15" s="7">
+        <v>82</v>
+      </c>
+      <c r="W15" s="7">
+        <v>91.25</v>
+      </c>
+      <c r="X15" s="7">
         <v>95</v>
       </c>
-      <c r="R15" s="7">
-        <v>100</v>
-      </c>
-      <c r="S15" s="7">
-        <v>89.13</v>
-      </c>
-      <c r="T15" s="7">
-        <v>97.91</v>
-      </c>
-      <c r="U15" s="7">
-        <v>96.43</v>
-      </c>
-      <c r="V15" s="7">
-        <v>85.75</v>
-      </c>
-      <c r="W15" s="7">
-        <v>82</v>
-      </c>
-      <c r="X15" s="7">
-        <v>91.25</v>
-      </c>
       <c r="Y15" s="7">
-        <v>95</v>
+        <v>98.5</v>
       </c>
       <c r="Z15" s="7">
-        <v>98.5</v>
+        <v>98.75</v>
       </c>
       <c r="AA15" s="7">
-        <v>98.75</v>
+        <v>86.88</v>
       </c>
       <c r="AB15" s="7">
-        <v>86.88</v>
+        <v>98.13</v>
       </c>
       <c r="AC15" s="7">
-        <v>98.13</v>
+        <v>93</v>
       </c>
       <c r="AD15" s="7">
-        <v>93</v>
+        <v>85.94</v>
       </c>
       <c r="AE15" s="7">
-        <v>85.94</v>
+        <v>96.67</v>
       </c>
       <c r="AF15" s="7">
-        <v>96.67</v>
-      </c>
-      <c r="AG15" s="7">
         <v>95.34</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="5" t="s">
-        <v>73</v>
+    <row r="16" spans="1:32">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>25.739747252747257</v>
       </c>
       <c r="B16" s="6">
-        <f t="shared" si="0"/>
-        <v>25.739747252747257</v>
-      </c>
-      <c r="C16" s="6">
         <f t="shared" si="1"/>
         <v>8.6132857142857144</v>
       </c>
-      <c r="D16" s="6">
+      <c r="C16" s="6">
         <f t="shared" si="2"/>
         <v>17.126461538461541</v>
       </c>
+      <c r="D16" s="7">
+        <v>96.56</v>
+      </c>
       <c r="E16" s="7">
-        <v>96.56</v>
+        <v>97.5</v>
       </c>
       <c r="F16" s="7">
-        <v>97.5</v>
+        <v>92.5</v>
       </c>
       <c r="G16" s="7">
+        <v>68.33</v>
+      </c>
+      <c r="H16" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="I16" s="7">
+        <v>88.69</v>
+      </c>
+      <c r="J16" s="7">
+        <v>97.14</v>
+      </c>
+      <c r="K16" s="7">
+        <v>95</v>
+      </c>
+      <c r="L16" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="M16" s="7">
         <v>92.5</v>
       </c>
-      <c r="H16" s="7">
-        <v>68.33</v>
-      </c>
-      <c r="I16" s="7">
-        <v>91.88</v>
-      </c>
-      <c r="J16" s="7">
-        <v>88.69</v>
-      </c>
-      <c r="K16" s="7">
-        <v>97.14</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="N16" s="7">
+        <v>98.13</v>
+      </c>
+      <c r="O16" s="7">
+        <v>74.38</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>96.25</v>
+      </c>
+      <c r="R16" s="7">
+        <v>79.5</v>
+      </c>
+      <c r="S16" s="7">
+        <v>96.14</v>
+      </c>
+      <c r="T16" s="7">
+        <v>80.95</v>
+      </c>
+      <c r="U16" s="7">
+        <v>79</v>
+      </c>
+      <c r="V16" s="7">
+        <v>75</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>93.21</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="Z16" s="7">
         <v>95</v>
       </c>
-      <c r="M16" s="7">
-        <v>37.5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>92.5</v>
-      </c>
-      <c r="O16" s="7">
-        <v>98.13</v>
-      </c>
-      <c r="P16" s="7">
-        <v>74.38</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="S16" s="7">
-        <v>79.5</v>
-      </c>
-      <c r="T16" s="7">
-        <v>96.14</v>
-      </c>
-      <c r="U16" s="7">
-        <v>80.95</v>
-      </c>
-      <c r="V16" s="7">
-        <v>79</v>
-      </c>
-      <c r="W16" s="7">
-        <v>75</v>
-      </c>
-      <c r="X16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>93.21</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>98.5</v>
-      </c>
       <c r="AA16" s="7">
+        <v>58.75</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>97</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>99</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>67.03</v>
+      </c>
+      <c r="AE16" s="7">
         <v>95</v>
       </c>
-      <c r="AB16" s="7">
-        <v>58.75</v>
-      </c>
-      <c r="AC16" s="7">
-        <v>97</v>
-      </c>
-      <c r="AD16" s="7">
-        <v>99</v>
-      </c>
-      <c r="AE16" s="7">
-        <v>67.03</v>
-      </c>
       <c r="AF16" s="7">
-        <v>95</v>
-      </c>
-      <c r="AG16" s="7">
         <v>78.64</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
-      <c r="A17" s="5" t="s">
-        <v>74</v>
+    <row r="17" spans="1:32">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>29.055021978021976</v>
       </c>
       <c r="B17" s="6">
-        <f t="shared" si="0"/>
-        <v>29.055021978021976</v>
-      </c>
-      <c r="C17" s="6">
         <f t="shared" si="1"/>
         <v>9.7807142857142839</v>
       </c>
-      <c r="D17" s="6">
+      <c r="C17" s="6">
         <f t="shared" si="2"/>
         <v>19.274307692307694</v>
       </c>
+      <c r="D17" s="7">
+        <v>98.44</v>
+      </c>
       <c r="E17" s="7">
-        <v>98.44</v>
+        <v>96.88</v>
       </c>
       <c r="F17" s="7">
-        <v>96.88</v>
+        <v>97.5</v>
       </c>
       <c r="G17" s="7">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>100</v>
+      </c>
+      <c r="I17" s="7">
+        <v>98.93</v>
+      </c>
+      <c r="J17" s="7">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7">
         <v>97.5</v>
       </c>
-      <c r="H17" s="7">
-        <v>95</v>
-      </c>
-      <c r="I17" s="7">
-        <v>100</v>
-      </c>
-      <c r="J17" s="7">
-        <v>98.93</v>
-      </c>
-      <c r="K17" s="7">
-        <v>95</v>
-      </c>
       <c r="L17" s="7">
-        <v>97.5</v>
+        <v>96.79</v>
       </c>
       <c r="M17" s="7">
-        <v>96.79</v>
+        <v>66.67</v>
       </c>
       <c r="N17" s="7">
-        <v>66.67</v>
+        <v>98.13</v>
       </c>
       <c r="O17" s="7">
-        <v>98.13</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7">
         <v>100</v>
@@ -7090,90 +6908,87 @@
         <v>100</v>
       </c>
       <c r="R17" s="7">
-        <v>100</v>
+        <v>95.13</v>
       </c>
       <c r="S17" s="7">
-        <v>95.13</v>
+        <v>96.59</v>
       </c>
       <c r="T17" s="7">
-        <v>96.59</v>
+        <v>96.25</v>
       </c>
       <c r="U17" s="7">
-        <v>96.25</v>
+        <v>88.75</v>
       </c>
       <c r="V17" s="7">
-        <v>88.75</v>
+        <v>93</v>
       </c>
       <c r="W17" s="7">
-        <v>93</v>
+        <v>96.56</v>
       </c>
       <c r="X17" s="7">
-        <v>96.56</v>
+        <v>98.21</v>
       </c>
       <c r="Y17" s="7">
-        <v>98.21</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="7">
-        <v>100</v>
+        <v>94.38</v>
       </c>
       <c r="AA17" s="7">
         <v>94.38</v>
       </c>
       <c r="AB17" s="7">
-        <v>94.38</v>
+        <v>97.19</v>
       </c>
       <c r="AC17" s="7">
-        <v>97.19</v>
+        <v>97</v>
       </c>
       <c r="AD17" s="7">
-        <v>97</v>
+        <v>98.13</v>
       </c>
       <c r="AE17" s="7">
-        <v>98.13</v>
+        <v>98.75</v>
       </c>
       <c r="AF17" s="7">
-        <v>98.75</v>
-      </c>
-      <c r="AG17" s="7">
         <v>92.39</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
-      <c r="A18" s="5" t="s">
-        <v>75</v>
+    <row r="18" spans="1:32">
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>29.325175824175822</v>
       </c>
       <c r="B18" s="6">
-        <f t="shared" si="0"/>
-        <v>29.325175824175822</v>
-      </c>
-      <c r="C18" s="6">
         <f t="shared" si="1"/>
         <v>9.8047142857142848</v>
       </c>
-      <c r="D18" s="6">
+      <c r="C18" s="6">
         <f t="shared" si="2"/>
         <v>19.520461538461539</v>
       </c>
+      <c r="D18" s="7">
+        <v>94.06</v>
+      </c>
       <c r="E18" s="7">
-        <v>94.06</v>
+        <v>91.25</v>
       </c>
       <c r="F18" s="7">
-        <v>91.25</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7">
-        <v>100</v>
+        <v>94.38</v>
       </c>
       <c r="H18" s="7">
-        <v>94.38</v>
+        <v>100</v>
       </c>
       <c r="I18" s="7">
-        <v>100</v>
+        <v>97.86</v>
       </c>
       <c r="J18" s="7">
         <v>97.86</v>
       </c>
       <c r="K18" s="7">
-        <v>97.86</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7">
         <v>100</v>
@@ -7182,200 +6997,194 @@
         <v>100</v>
       </c>
       <c r="N18" s="7">
-        <v>100</v>
+        <v>96.25</v>
       </c>
       <c r="O18" s="7">
+        <v>100</v>
+      </c>
+      <c r="P18" s="7">
+        <v>97.5</v>
+      </c>
+      <c r="Q18" s="7">
         <v>96.25</v>
       </c>
-      <c r="P18" s="7">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>97.5</v>
-      </c>
       <c r="R18" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="S18" s="7">
+        <v>98.64</v>
+      </c>
+      <c r="T18" s="7">
+        <v>98.45</v>
+      </c>
+      <c r="U18" s="7">
+        <v>87.25</v>
+      </c>
+      <c r="V18" s="7">
+        <v>89.4</v>
+      </c>
+      <c r="W18" s="7">
+        <v>96.88</v>
+      </c>
+      <c r="X18" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>97.19</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>98.44</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>98.13</v>
+      </c>
+      <c r="AE18" s="7">
         <v>96.25</v>
       </c>
-      <c r="S18" s="7">
-        <v>98.5</v>
-      </c>
-      <c r="T18" s="7">
-        <v>98.64</v>
-      </c>
-      <c r="U18" s="7">
-        <v>98.45</v>
-      </c>
-      <c r="V18" s="7">
-        <v>87.25</v>
-      </c>
-      <c r="W18" s="7">
-        <v>89.4</v>
-      </c>
-      <c r="X18" s="7">
-        <v>96.88</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>100</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>100</v>
-      </c>
-      <c r="AA18" s="7">
-        <v>100</v>
-      </c>
-      <c r="AB18" s="7">
-        <v>97.19</v>
-      </c>
-      <c r="AC18" s="7">
-        <v>98.44</v>
-      </c>
-      <c r="AD18" s="7">
-        <v>100</v>
-      </c>
-      <c r="AE18" s="7">
-        <v>98.13</v>
-      </c>
       <c r="AF18" s="7">
-        <v>96.25</v>
-      </c>
-      <c r="AG18" s="7">
         <v>95.45</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
-      <c r="A19" s="5" t="s">
-        <v>76</v>
+    <row r="19" spans="1:32">
+      <c r="A19" s="6">
+        <f t="shared" si="0"/>
+        <v>25.456428571428567</v>
       </c>
       <c r="B19" s="6">
-        <f t="shared" si="0"/>
-        <v>25.456428571428567</v>
-      </c>
-      <c r="C19" s="6">
         <f t="shared" si="1"/>
         <v>8.8064285714285688</v>
       </c>
-      <c r="D19" s="6">
+      <c r="C19" s="6">
         <f t="shared" si="2"/>
         <v>16.649999999999999</v>
       </c>
+      <c r="D19" s="7">
+        <v>78.13</v>
+      </c>
       <c r="E19" s="7">
-        <v>78.13</v>
+        <v>96.88</v>
       </c>
       <c r="F19" s="7">
-        <v>96.88</v>
+        <v>96.25</v>
       </c>
       <c r="G19" s="7">
+        <v>97.29</v>
+      </c>
+      <c r="H19" s="7">
         <v>96.25</v>
       </c>
-      <c r="H19" s="7">
-        <v>97.29</v>
-      </c>
       <c r="I19" s="7">
+        <v>80.83</v>
+      </c>
+      <c r="J19" s="7">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="K19" s="7">
         <v>96.25</v>
       </c>
-      <c r="J19" s="7">
-        <v>80.83</v>
-      </c>
-      <c r="K19" s="7">
-        <v>71.430000000000007</v>
-      </c>
       <c r="L19" s="7">
+        <v>89.29</v>
+      </c>
+      <c r="M19" s="7">
+        <v>87.92</v>
+      </c>
+      <c r="N19" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="O19" s="7">
+        <v>44.38</v>
+      </c>
+      <c r="P19" s="7">
+        <v>63.75</v>
+      </c>
+      <c r="Q19" s="7">
         <v>96.25</v>
       </c>
-      <c r="M19" s="7">
-        <v>89.29</v>
-      </c>
-      <c r="N19" s="7">
-        <v>87.92</v>
-      </c>
-      <c r="O19" s="7">
-        <v>92.5</v>
-      </c>
-      <c r="P19" s="7">
-        <v>44.38</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>63.75</v>
-      </c>
       <c r="R19" s="7">
-        <v>96.25</v>
+        <v>89.88</v>
       </c>
       <c r="S19" s="7">
-        <v>89.88</v>
+        <v>91.59</v>
       </c>
       <c r="T19" s="7">
-        <v>91.59</v>
+        <v>84.29</v>
       </c>
       <c r="U19" s="7">
-        <v>84.29</v>
+        <v>74.75</v>
       </c>
       <c r="V19" s="7">
-        <v>74.75</v>
+        <v>64</v>
       </c>
       <c r="W19" s="7">
-        <v>64</v>
+        <v>83.54</v>
       </c>
       <c r="X19" s="7">
-        <v>83.54</v>
+        <v>77.62</v>
       </c>
       <c r="Y19" s="7">
-        <v>77.62</v>
+        <v>90.25</v>
       </c>
       <c r="Z19" s="7">
-        <v>90.25</v>
+        <v>77.290000000000006</v>
       </c>
       <c r="AA19" s="7">
-        <v>77.290000000000006</v>
+        <v>83.59</v>
       </c>
       <c r="AB19" s="7">
-        <v>83.59</v>
+        <v>91.56</v>
       </c>
       <c r="AC19" s="7">
-        <v>91.56</v>
+        <v>80.67</v>
       </c>
       <c r="AD19" s="7">
-        <v>80.67</v>
+        <v>39.22</v>
       </c>
       <c r="AE19" s="7">
-        <v>39.22</v>
+        <v>94.58</v>
       </c>
       <c r="AF19" s="7">
-        <v>94.58</v>
-      </c>
-      <c r="AG19" s="7">
         <v>88.52</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
-      <c r="A20" s="5" t="s">
-        <v>77</v>
+    <row r="20" spans="1:32">
+      <c r="A20" s="6">
+        <f t="shared" si="0"/>
+        <v>29.730752747252751</v>
       </c>
       <c r="B20" s="6">
-        <f t="shared" si="0"/>
-        <v>29.730752747252751</v>
-      </c>
-      <c r="C20" s="6">
         <f t="shared" si="1"/>
         <v>9.961214285714286</v>
       </c>
-      <c r="D20" s="6">
+      <c r="C20" s="6">
         <f t="shared" si="2"/>
         <v>19.769538461538463</v>
       </c>
+      <c r="D20" s="7">
+        <v>98.13</v>
+      </c>
       <c r="E20" s="7">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7">
+        <v>100</v>
+      </c>
+      <c r="G20" s="7">
+        <v>100</v>
+      </c>
+      <c r="H20" s="7">
         <v>98.13</v>
       </c>
-      <c r="F20" s="7">
-        <v>100</v>
-      </c>
-      <c r="G20" s="7">
-        <v>100</v>
-      </c>
-      <c r="H20" s="7">
-        <v>100</v>
-      </c>
       <c r="I20" s="7">
-        <v>98.13</v>
+        <v>100</v>
       </c>
       <c r="J20" s="7">
         <v>100</v>
@@ -7390,278 +7199,269 @@
         <v>100</v>
       </c>
       <c r="N20" s="7">
-        <v>100</v>
+        <v>99.06</v>
       </c>
       <c r="O20" s="7">
-        <v>99.06</v>
+        <v>96.25</v>
       </c>
       <c r="P20" s="7">
-        <v>96.25</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7">
         <v>100</v>
       </c>
       <c r="R20" s="7">
-        <v>100</v>
+        <v>99.25</v>
       </c>
       <c r="S20" s="7">
-        <v>99.25</v>
+        <v>98.41</v>
       </c>
       <c r="T20" s="7">
-        <v>98.41</v>
+        <v>99.23</v>
       </c>
       <c r="U20" s="7">
-        <v>99.23</v>
+        <v>98.5</v>
       </c>
       <c r="V20" s="7">
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="W20" s="7">
-        <v>97</v>
+        <v>98.75</v>
       </c>
       <c r="X20" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>94.38</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>93.44</v>
+      </c>
+      <c r="AE20" s="7">
         <v>98.75</v>
       </c>
-      <c r="Y20" s="7">
-        <v>100</v>
-      </c>
-      <c r="Z20" s="7">
-        <v>100</v>
-      </c>
-      <c r="AA20" s="7">
-        <v>100</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>94.38</v>
-      </c>
-      <c r="AC20" s="7">
-        <v>100</v>
-      </c>
-      <c r="AD20" s="7">
-        <v>100</v>
-      </c>
-      <c r="AE20" s="7">
-        <v>93.44</v>
-      </c>
       <c r="AF20" s="7">
-        <v>98.75</v>
-      </c>
-      <c r="AG20" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33">
-      <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>28.931384615384619</v>
       </c>
       <c r="B21" s="6">
-        <f t="shared" si="0"/>
-        <v>28.931384615384619</v>
-      </c>
-      <c r="C21" s="6">
         <f t="shared" si="1"/>
         <v>9.7340000000000018</v>
       </c>
-      <c r="D21" s="6">
+      <c r="C21" s="6">
         <f t="shared" si="2"/>
         <v>19.197384615384617</v>
       </c>
+      <c r="D21" s="7">
+        <v>98.33</v>
+      </c>
       <c r="E21" s="7">
-        <v>98.33</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7">
-        <v>100</v>
+        <v>96.25</v>
       </c>
       <c r="G21" s="7">
+        <v>96.04</v>
+      </c>
+      <c r="H21" s="7">
+        <v>98.13</v>
+      </c>
+      <c r="I21" s="7">
+        <v>100</v>
+      </c>
+      <c r="J21" s="7">
+        <v>100</v>
+      </c>
+      <c r="K21" s="7">
         <v>96.25</v>
       </c>
-      <c r="H21" s="7">
-        <v>96.04</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="L21" s="7">
+        <v>100</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>100</v>
+      </c>
+      <c r="O21" s="7">
         <v>98.13</v>
       </c>
-      <c r="J21" s="7">
-        <v>100</v>
-      </c>
-      <c r="K21" s="7">
-        <v>100</v>
-      </c>
-      <c r="L21" s="7">
+      <c r="P21" s="7">
+        <v>95</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>100</v>
+      </c>
+      <c r="R21" s="7">
+        <v>84.63</v>
+      </c>
+      <c r="S21" s="7">
+        <v>97.05</v>
+      </c>
+      <c r="T21" s="7">
+        <v>98.27</v>
+      </c>
+      <c r="U21" s="7">
+        <v>89</v>
+      </c>
+      <c r="V21" s="7">
+        <v>93.4</v>
+      </c>
+      <c r="W21" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="X21" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>97.5</v>
+      </c>
+      <c r="AA21" s="7">
         <v>96.25</v>
       </c>
-      <c r="M21" s="7">
-        <v>100</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>100</v>
-      </c>
-      <c r="P21" s="7">
-        <v>98.13</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>95</v>
-      </c>
-      <c r="R21" s="7">
-        <v>100</v>
-      </c>
-      <c r="S21" s="7">
-        <v>84.63</v>
-      </c>
-      <c r="T21" s="7">
-        <v>97.05</v>
-      </c>
-      <c r="U21" s="7">
-        <v>98.27</v>
-      </c>
-      <c r="V21" s="7">
-        <v>89</v>
-      </c>
-      <c r="W21" s="7">
-        <v>93.4</v>
-      </c>
-      <c r="X21" s="7">
-        <v>91.88</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>92.5</v>
-      </c>
-      <c r="Z21" s="7">
-        <v>98.5</v>
-      </c>
-      <c r="AA21" s="7">
-        <v>97.5</v>
-      </c>
       <c r="AB21" s="7">
-        <v>96.25</v>
+        <v>99.06</v>
       </c>
       <c r="AC21" s="7">
-        <v>99.06</v>
+        <v>100</v>
       </c>
       <c r="AD21" s="7">
-        <v>100</v>
+        <v>90.63</v>
       </c>
       <c r="AE21" s="7">
-        <v>90.63</v>
+        <v>95.63</v>
       </c>
       <c r="AF21" s="7">
-        <v>95.63</v>
-      </c>
-      <c r="AG21" s="7">
         <v>97.16</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
-      <c r="A22" s="5" t="s">
-        <v>79</v>
+    <row r="22" spans="1:32">
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>27.09575824175824</v>
       </c>
       <c r="B22" s="6">
-        <f t="shared" si="0"/>
-        <v>27.09575824175824</v>
-      </c>
-      <c r="C22" s="6">
         <f t="shared" si="1"/>
         <v>9.2071428571428573</v>
       </c>
-      <c r="D22" s="6">
+      <c r="C22" s="6">
         <f t="shared" si="2"/>
         <v>17.888615384615385</v>
       </c>
+      <c r="D22" s="7">
+        <v>90.52</v>
+      </c>
       <c r="E22" s="7">
-        <v>90.52</v>
+        <v>93.75</v>
       </c>
       <c r="F22" s="7">
-        <v>93.75</v>
+        <v>92.5</v>
       </c>
       <c r="G22" s="7">
+        <v>92.92</v>
+      </c>
+      <c r="H22" s="7">
+        <v>95</v>
+      </c>
+      <c r="I22" s="7">
+        <v>97.86</v>
+      </c>
+      <c r="J22" s="7">
+        <v>79.290000000000006</v>
+      </c>
+      <c r="K22" s="7">
+        <v>98.75</v>
+      </c>
+      <c r="L22" s="7">
+        <v>95.71</v>
+      </c>
+      <c r="M22" s="7">
+        <v>97.5</v>
+      </c>
+      <c r="N22" s="7">
+        <v>97.19</v>
+      </c>
+      <c r="O22" s="7">
+        <v>90.63</v>
+      </c>
+      <c r="P22" s="7">
+        <v>68.33</v>
+      </c>
+      <c r="Q22" s="7">
         <v>92.5</v>
       </c>
-      <c r="H22" s="7">
-        <v>92.92</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="R22" s="7">
+        <v>74.88</v>
+      </c>
+      <c r="S22" s="7">
+        <v>92.5</v>
+      </c>
+      <c r="T22" s="7">
+        <v>92.44</v>
+      </c>
+      <c r="U22" s="7">
+        <v>83.75</v>
+      </c>
+      <c r="V22" s="7">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="W22" s="7">
+        <v>91.56</v>
+      </c>
+      <c r="X22" s="7">
+        <v>85.36</v>
+      </c>
+      <c r="Y22" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="Z22" s="7">
         <v>95</v>
       </c>
-      <c r="J22" s="7">
-        <v>97.86</v>
-      </c>
-      <c r="K22" s="7">
-        <v>79.290000000000006</v>
-      </c>
-      <c r="L22" s="7">
-        <v>98.75</v>
-      </c>
-      <c r="M22" s="7">
-        <v>95.71</v>
-      </c>
-      <c r="N22" s="7">
-        <v>97.5</v>
-      </c>
-      <c r="O22" s="7">
-        <v>97.19</v>
-      </c>
-      <c r="P22" s="7">
-        <v>90.63</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>68.33</v>
-      </c>
-      <c r="R22" s="7">
-        <v>92.5</v>
-      </c>
-      <c r="S22" s="7">
-        <v>74.88</v>
-      </c>
-      <c r="T22" s="7">
-        <v>92.5</v>
-      </c>
-      <c r="U22" s="7">
-        <v>92.44</v>
-      </c>
-      <c r="V22" s="7">
-        <v>83.75</v>
-      </c>
-      <c r="W22" s="7">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="X22" s="7">
-        <v>91.56</v>
-      </c>
-      <c r="Y22" s="7">
-        <v>85.36</v>
-      </c>
-      <c r="Z22" s="7">
-        <v>98.5</v>
-      </c>
       <c r="AA22" s="7">
-        <v>95</v>
+        <v>77.19</v>
       </c>
       <c r="AB22" s="7">
-        <v>77.19</v>
+        <v>94.38</v>
       </c>
       <c r="AC22" s="7">
-        <v>94.38</v>
+        <v>97</v>
       </c>
       <c r="AD22" s="7">
-        <v>97</v>
+        <v>79.84</v>
       </c>
       <c r="AE22" s="7">
-        <v>79.84</v>
+        <v>87.17</v>
       </c>
       <c r="AF22" s="7">
-        <v>87.17</v>
-      </c>
-      <c r="AG22" s="7">
         <v>88.07</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:32">
+      <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7675,24 +7475,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -7704,7 +7503,7 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
         <v>34</v>
@@ -7715,583 +7514,520 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>59</v>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <f>SUM(B2:G2)-MIN(B2:G2)-SMALL(B2:G2,2)+H2</f>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
-        <f>SUM(C2:H2)-MIN(C2:H2)-SMALL(C2:H2,2)+I2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A22" si="0">SUM(B3:G3)-MIN(B3:G3)-SMALL(B3:G3,2)+H3</f>
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B22" si="0">SUM(C3:H3)-MIN(C3:H3)-SMALL(C3:H3,2)+I3</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -8300,12 +8036,9 @@
         <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CTREE2017/ProgressReport/gradebook.xlsx
+++ b/CTREE2017/ProgressReport/gradebook.xlsx
@@ -51,15 +51,6 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -112,6 +103,15 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>StudentD</t>
+  </si>
+  <si>
+    <t>StudentE</t>
+  </si>
+  <si>
+    <t>StudentF</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -571,7 +571,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>7</v>

--- a/CTREE2017/ProgressReport/gradebook.xlsx
+++ b/CTREE2017/ProgressReport/gradebook.xlsx
@@ -118,6 +118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -179,9 +182,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -532,7 +536,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -591,7 +595,7 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>SUM(B2:G2)</f>
         <v>56.927142857142854</v>
       </c>
@@ -625,7 +629,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H22" si="0">SUM(B3:G3)</f>
         <v>59.86571428571429</v>
       </c>
@@ -659,7 +663,7 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>67.440952380952382</v>
       </c>
@@ -693,7 +697,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>58.404761904761905</v>
       </c>
@@ -727,7 +731,7 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>59.029761904761905</v>
       </c>
@@ -761,7 +765,7 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>62.21142857142857</v>
       </c>
@@ -795,7 +799,7 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>58.442380952380951</v>
       </c>
@@ -829,7 +833,7 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>56.488095238095241</v>
       </c>
@@ -863,7 +867,7 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>59.571428571428569</v>
       </c>
@@ -897,7 +901,7 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>52.706190476190471</v>
       </c>
@@ -931,7 +935,7 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>55.763809523809527</v>
       </c>
@@ -965,7 +969,7 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>65.528571428571425</v>
       </c>
@@ -999,7 +1003,7 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>60.12</v>
       </c>
@@ -1033,7 +1037,7 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>61.309047619047618</v>
       </c>
@@ -1067,7 +1071,7 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>51.020476190476188</v>
       </c>
@@ -1101,7 +1105,7 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>56.445714285714288</v>
       </c>
@@ -1135,7 +1139,7 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>66.416666666666657</v>
       </c>
@@ -1169,7 +1173,7 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>38.319523809523808</v>
       </c>
@@ -1203,7 +1207,7 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>55.326190476190476</v>
       </c>
@@ -1237,7 +1241,7 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>55.952619047619052</v>
       </c>
@@ -1271,7 +1275,7 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <f t="shared" si="0"/>
         <v>56.701428571428572</v>
       </c>
